--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3213625.076548755</v>
+        <v>-3215544.495915625</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4003475.499331044</v>
+        <v>4003475.499331046</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>336.4786356669601</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>319.0176857744871</v>
+        <v>319.017685774487</v>
       </c>
       <c r="D11" t="n">
-        <v>100.1014067532697</v>
+        <v>308.4278356241624</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>360.6208397451909</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>366.3767303348944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>265.8672534964699</v>
       </c>
       <c r="I11" t="n">
-        <v>61.25462093850415</v>
+        <v>61.25462093850408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>101.9039816156959</v>
       </c>
       <c r="T11" t="n">
-        <v>165.1492113858748</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.8767828166183</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>281.4970524736145</v>
+        <v>281.4970524736144</v>
       </c>
       <c r="W11" t="n">
-        <v>302.9857627208926</v>
+        <v>302.9857627208925</v>
       </c>
       <c r="X11" t="n">
-        <v>323.4758946819486</v>
+        <v>168.7720047634888</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.9827326595332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.91281843552993</v>
+        <v>133.5767741854168</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.9916151021073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>100.1787566500486</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.17042414537137</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.8830058115745</v>
+        <v>156.8830058115744</v>
       </c>
       <c r="T13" t="n">
-        <v>176.5715302614051</v>
+        <v>150.1754192448059</v>
       </c>
       <c r="U13" t="n">
-        <v>239.9984762982215</v>
+        <v>239.9984762982211</v>
       </c>
       <c r="V13" t="n">
         <v>205.8824373273075</v>
       </c>
       <c r="W13" t="n">
-        <v>240.2677923400705</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>179.4544493925167</v>
+        <v>179.4544493925166</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.3294473555743</v>
+        <v>172.3294473555742</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336.4786356669601</v>
+        <v>336.47863566696</v>
       </c>
       <c r="C14" t="n">
         <v>319.0176857744871</v>
       </c>
       <c r="D14" t="n">
-        <v>308.4278356241625</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>335.6751640757413</v>
+        <v>335.6751640757412</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>360.6208397451909</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>95.96798454102873</v>
       </c>
       <c r="H14" t="n">
-        <v>74.04550949899259</v>
+        <v>265.8672534964699</v>
       </c>
       <c r="I14" t="n">
-        <v>61.25462093850417</v>
+        <v>61.25462093850409</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.903981615696</v>
+        <v>101.9039816156964</v>
       </c>
       <c r="T14" t="n">
-        <v>165.1492113858748</v>
+        <v>165.1492113858747</v>
       </c>
       <c r="U14" t="n">
-        <v>204.8767828166184</v>
+        <v>204.8767828166188</v>
       </c>
       <c r="V14" t="n">
-        <v>281.4970524736145</v>
+        <v>281.4970524736144</v>
       </c>
       <c r="W14" t="n">
-        <v>302.9857627208926</v>
+        <v>302.9857627208925</v>
       </c>
       <c r="X14" t="n">
-        <v>323.4758946819486</v>
+        <v>323.4758946819485</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.9827326595332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.91281843553009</v>
+        <v>133.5767741854168</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>120.9916151021073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.17042414537136</v>
+        <v>77.17042414537127</v>
       </c>
       <c r="S16" t="n">
-        <v>156.8830058115745</v>
+        <v>156.8830058115744</v>
       </c>
       <c r="T16" t="n">
-        <v>176.5715302614051</v>
+        <v>176.571530261405</v>
       </c>
       <c r="U16" t="n">
-        <v>239.998476298221</v>
+        <v>239.9984762982211</v>
       </c>
       <c r="V16" t="n">
-        <v>205.8824373273076</v>
+        <v>205.8824373273075</v>
       </c>
       <c r="W16" t="n">
-        <v>240.2677923400706</v>
+        <v>168.9416688436518</v>
       </c>
       <c r="X16" t="n">
-        <v>179.4544493925167</v>
+        <v>179.4544493925166</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.3294473555744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>275.2240147284559</v>
+        <v>275.224014728456</v>
       </c>
       <c r="C17" t="n">
         <v>257.763064835983</v>
       </c>
       <c r="D17" t="n">
-        <v>247.1732146856583</v>
+        <v>247.1732146856584</v>
       </c>
       <c r="E17" t="n">
-        <v>274.4205431372371</v>
+        <v>274.4205431372372</v>
       </c>
       <c r="F17" t="n">
-        <v>299.3662188066873</v>
+        <v>299.3662188066868</v>
       </c>
       <c r="G17" t="n">
         <v>305.12210939639</v>
       </c>
       <c r="H17" t="n">
-        <v>204.6126325579658</v>
+        <v>204.6126325579659</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.64936067719216</v>
+        <v>40.64936067719171</v>
       </c>
       <c r="T17" t="n">
-        <v>103.8945904473706</v>
+        <v>103.8945904473707</v>
       </c>
       <c r="U17" t="n">
-        <v>143.6221618781137</v>
+        <v>143.622161878115</v>
       </c>
       <c r="V17" t="n">
         <v>220.2424315351103</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.32215324691268</v>
+        <v>72.32215324691271</v>
       </c>
       <c r="C19" t="n">
-        <v>59.73699416360321</v>
+        <v>59.73699416360324</v>
       </c>
       <c r="D19" t="n">
-        <v>41.10564608318774</v>
+        <v>41.10564608318776</v>
       </c>
       <c r="E19" t="n">
-        <v>38.92413571154455</v>
+        <v>38.92413571154458</v>
       </c>
       <c r="F19" t="n">
-        <v>37.91122108790663</v>
+        <v>37.91122108790665</v>
       </c>
       <c r="G19" t="n">
-        <v>59.28312295803168</v>
+        <v>59.28312295803171</v>
       </c>
       <c r="H19" t="n">
-        <v>44.06577450729129</v>
+        <v>44.06577450729132</v>
       </c>
       <c r="I19" t="n">
-        <v>11.91263461449433</v>
+        <v>11.91263461449436</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.91580320686716</v>
+        <v>15.91580320686719</v>
       </c>
       <c r="S19" t="n">
-        <v>95.62838487307029</v>
+        <v>95.62838487307032</v>
       </c>
       <c r="T19" t="n">
-        <v>115.3169093229009</v>
+        <v>115.316909322901</v>
       </c>
       <c r="U19" t="n">
-        <v>178.743855359717</v>
+        <v>178.7438553597171</v>
       </c>
       <c r="V19" t="n">
         <v>144.6278163888034</v>
@@ -2065,7 +2065,7 @@
         <v>179.0131714015664</v>
       </c>
       <c r="X19" t="n">
-        <v>118.1998284540125</v>
+        <v>118.1998284540126</v>
       </c>
       <c r="Y19" t="n">
         <v>111.0748264170702</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.64936067719178</v>
+        <v>40.64936067719179</v>
       </c>
       <c r="T20" t="n">
-        <v>103.8945904473706</v>
+        <v>103.8945904473707</v>
       </c>
       <c r="U20" t="n">
-        <v>143.6221618781146</v>
+        <v>143.6221618781141</v>
       </c>
       <c r="V20" t="n">
         <v>220.2424315351103</v>
@@ -2144,7 +2144,7 @@
         <v>241.7311417823884</v>
       </c>
       <c r="X20" t="n">
-        <v>262.2212737434444</v>
+        <v>262.2212737434431</v>
       </c>
       <c r="Y20" t="n">
         <v>278.728111721029</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.32215324691269</v>
+        <v>72.32215324691271</v>
       </c>
       <c r="C22" t="n">
-        <v>59.73699416360323</v>
+        <v>59.73699416360324</v>
       </c>
       <c r="D22" t="n">
-        <v>41.10564608318775</v>
+        <v>41.10564608318776</v>
       </c>
       <c r="E22" t="n">
-        <v>38.92413571154457</v>
+        <v>38.92413571154458</v>
       </c>
       <c r="F22" t="n">
-        <v>37.91122108790664</v>
+        <v>37.91122108790665</v>
       </c>
       <c r="G22" t="n">
-        <v>59.2831229580317</v>
+        <v>59.28312295803171</v>
       </c>
       <c r="H22" t="n">
-        <v>44.06577450729131</v>
+        <v>44.06577450729132</v>
       </c>
       <c r="I22" t="n">
-        <v>11.91263461449434</v>
+        <v>11.91263461449436</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.91580320686717</v>
+        <v>15.91580320686719</v>
       </c>
       <c r="S22" t="n">
-        <v>95.6283848730703</v>
+        <v>95.62838487307032</v>
       </c>
       <c r="T22" t="n">
-        <v>115.3169093229009</v>
+        <v>115.316909322901</v>
       </c>
       <c r="U22" t="n">
         <v>178.7438553597171</v>
@@ -2302,7 +2302,7 @@
         <v>179.0131714015664</v>
       </c>
       <c r="X22" t="n">
-        <v>118.1998284540125</v>
+        <v>118.1998284540126</v>
       </c>
       <c r="Y22" t="n">
         <v>111.0748264170702</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.64936067719178</v>
+        <v>40.64936067719179</v>
       </c>
       <c r="T23" t="n">
         <v>103.8945904473706</v>
       </c>
       <c r="U23" t="n">
-        <v>143.6221618781146</v>
+        <v>143.6221618781132</v>
       </c>
       <c r="V23" t="n">
         <v>220.2424315351103</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.32215324691269</v>
+        <v>72.32215324691271</v>
       </c>
       <c r="C25" t="n">
-        <v>59.73699416360323</v>
+        <v>59.73699416360324</v>
       </c>
       <c r="D25" t="n">
-        <v>41.10564608318775</v>
+        <v>41.10564608318776</v>
       </c>
       <c r="E25" t="n">
-        <v>38.92413571154457</v>
+        <v>38.92413571154458</v>
       </c>
       <c r="F25" t="n">
-        <v>37.91122108790664</v>
+        <v>37.91122108790665</v>
       </c>
       <c r="G25" t="n">
-        <v>59.2831229580317</v>
+        <v>59.28312295803171</v>
       </c>
       <c r="H25" t="n">
-        <v>44.06577450729131</v>
+        <v>44.06577450729132</v>
       </c>
       <c r="I25" t="n">
-        <v>11.91263461449434</v>
+        <v>11.91263461449436</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.91580320686717</v>
+        <v>15.91580320686719</v>
       </c>
       <c r="S25" t="n">
-        <v>95.6283848730703</v>
+        <v>95.62838487307032</v>
       </c>
       <c r="T25" t="n">
-        <v>115.3169093229009</v>
+        <v>115.316909322901</v>
       </c>
       <c r="U25" t="n">
         <v>178.7438553597171</v>
@@ -2539,7 +2539,7 @@
         <v>179.0131714015664</v>
       </c>
       <c r="X25" t="n">
-        <v>118.1998284540125</v>
+        <v>118.1998284540126</v>
       </c>
       <c r="Y25" t="n">
         <v>111.0748264170702</v>
@@ -2573,7 +2573,7 @@
         <v>230.4495732405442</v>
       </c>
       <c r="I26" t="n">
-        <v>25.83694068257837</v>
+        <v>25.83694068257836</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.48630135976983</v>
+        <v>66.48630135977014</v>
       </c>
       <c r="T26" t="n">
-        <v>129.731531129949</v>
+        <v>129.7315311299487</v>
       </c>
       <c r="U26" t="n">
         <v>169.4591025606936</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.15909392949106</v>
+        <v>98.15909392949105</v>
       </c>
       <c r="C28" t="n">
-        <v>85.5739348461816</v>
+        <v>85.57393484618159</v>
       </c>
       <c r="D28" t="n">
-        <v>66.94258676576612</v>
+        <v>66.94258676576611</v>
       </c>
       <c r="E28" t="n">
-        <v>64.76107639412294</v>
+        <v>64.76107639412292</v>
       </c>
       <c r="F28" t="n">
-        <v>63.74816177048501</v>
+        <v>63.748161770485</v>
       </c>
       <c r="G28" t="n">
-        <v>85.12006364061016</v>
+        <v>85.12006364061004</v>
       </c>
       <c r="H28" t="n">
-        <v>69.90271518986967</v>
+        <v>69.90271518986965</v>
       </c>
       <c r="I28" t="n">
         <v>37.7495752970727</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.75274388944572</v>
+        <v>41.75274388944595</v>
       </c>
       <c r="S28" t="n">
         <v>121.4653255556487</v>
@@ -2792,7 +2792,7 @@
         <v>301.0609554110343</v>
       </c>
       <c r="C29" t="n">
-        <v>283.6000055185613</v>
+        <v>283.6000055185614</v>
       </c>
       <c r="D29" t="n">
         <v>273.0101553682367</v>
@@ -2810,7 +2810,7 @@
         <v>230.4495732405442</v>
       </c>
       <c r="I29" t="n">
-        <v>25.83694068257837</v>
+        <v>25.8369406825784</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.48630135977017</v>
+        <v>66.48630135977018</v>
       </c>
       <c r="T29" t="n">
         <v>129.7315311299487</v>
       </c>
       <c r="U29" t="n">
-        <v>169.4591025606931</v>
+        <v>169.4591025606927</v>
       </c>
       <c r="V29" t="n">
         <v>246.0793722176887</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.15909392949108</v>
+        <v>98.15909392949109</v>
       </c>
       <c r="C31" t="n">
-        <v>85.57393484618161</v>
+        <v>85.57393484618163</v>
       </c>
       <c r="D31" t="n">
-        <v>66.94258676576614</v>
+        <v>66.94258676576615</v>
       </c>
       <c r="E31" t="n">
-        <v>64.76107639412295</v>
+        <v>64.76107639412297</v>
       </c>
       <c r="F31" t="n">
-        <v>63.74816177048503</v>
+        <v>63.74816177048504</v>
       </c>
       <c r="G31" t="n">
-        <v>85.12006364061008</v>
+        <v>85.12006364060998</v>
       </c>
       <c r="H31" t="n">
-        <v>69.9027151898697</v>
+        <v>69.90271518986971</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7495752970725</v>
+        <v>37.74957529707275</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>144.0367691365909</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.9117670996486</v>
+        <v>136.9117670996487</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>129.7315311299487</v>
       </c>
       <c r="U32" t="n">
-        <v>169.4591025606936</v>
+        <v>169.459102560694</v>
       </c>
       <c r="V32" t="n">
         <v>246.0793722176887</v>
@@ -3205,7 +3205,7 @@
         <v>69.90271518986967</v>
       </c>
       <c r="I34" t="n">
-        <v>37.74957529707271</v>
+        <v>37.7495752970727</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>63.74816177048501</v>
       </c>
       <c r="G37" t="n">
-        <v>85.12006364061037</v>
+        <v>85.12006364061006</v>
       </c>
       <c r="H37" t="n">
         <v>69.90271518986967</v>
       </c>
       <c r="I37" t="n">
-        <v>37.7495752970727</v>
+        <v>37.74957529707292</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>230.4495732405442</v>
       </c>
       <c r="I38" t="n">
-        <v>25.83694068257839</v>
+        <v>25.83694068257837</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.48630135977017</v>
+        <v>66.48630135977015</v>
       </c>
       <c r="T38" t="n">
         <v>129.7315311299487</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.15909392949108</v>
+        <v>98.15909392949106</v>
       </c>
       <c r="C40" t="n">
-        <v>85.57393484618161</v>
+        <v>85.5739348461816</v>
       </c>
       <c r="D40" t="n">
-        <v>66.94258676576614</v>
+        <v>66.94258676576612</v>
       </c>
       <c r="E40" t="n">
-        <v>64.76107639412295</v>
+        <v>64.76107639412294</v>
       </c>
       <c r="F40" t="n">
-        <v>63.74816177048503</v>
+        <v>63.74816177048501</v>
       </c>
       <c r="G40" t="n">
         <v>85.12006364061007</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75274388944595</v>
+        <v>41.75274388944555</v>
       </c>
       <c r="S40" t="n">
         <v>121.4653255556487</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301.0609554110343</v>
+        <v>301.0609554110344</v>
       </c>
       <c r="C41" t="n">
-        <v>283.6000055185613</v>
+        <v>283.6000055185614</v>
       </c>
       <c r="D41" t="n">
-        <v>273.0101553682367</v>
+        <v>273.0101553682368</v>
       </c>
       <c r="E41" t="n">
-        <v>300.2574838198155</v>
+        <v>300.2574838198156</v>
       </c>
       <c r="F41" t="n">
-        <v>325.2031594892652</v>
+        <v>325.2031594892653</v>
       </c>
       <c r="G41" t="n">
-        <v>330.9590500789684</v>
+        <v>330.9590500789685</v>
       </c>
       <c r="H41" t="n">
-        <v>230.4495732405442</v>
+        <v>230.4495732405443</v>
       </c>
       <c r="I41" t="n">
-        <v>25.83694068257837</v>
+        <v>25.83694068257843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.48630135977015</v>
+        <v>66.48630135977021</v>
       </c>
       <c r="T41" t="n">
-        <v>129.7315311299487</v>
+        <v>129.7315311299492</v>
       </c>
       <c r="U41" t="n">
-        <v>169.4591025606936</v>
+        <v>169.4591025606922</v>
       </c>
       <c r="V41" t="n">
         <v>246.0793722176887</v>
@@ -3803,7 +3803,7 @@
         <v>267.5680824649668</v>
       </c>
       <c r="X41" t="n">
-        <v>288.0582144260228</v>
+        <v>288.0582144260229</v>
       </c>
       <c r="Y41" t="n">
         <v>304.5650524036074</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.15909392949106</v>
+        <v>98.15909392949112</v>
       </c>
       <c r="C43" t="n">
-        <v>85.5739348461816</v>
+        <v>85.57393484618166</v>
       </c>
       <c r="D43" t="n">
-        <v>66.94258676576612</v>
+        <v>66.94258676576618</v>
       </c>
       <c r="E43" t="n">
-        <v>64.76107639412294</v>
+        <v>64.76107639412299</v>
       </c>
       <c r="F43" t="n">
-        <v>63.74816177048501</v>
+        <v>63.74816177048507</v>
       </c>
       <c r="G43" t="n">
-        <v>85.12006364061006</v>
+        <v>85.12006364061013</v>
       </c>
       <c r="H43" t="n">
-        <v>69.90271518986967</v>
+        <v>69.90271518986974</v>
       </c>
       <c r="I43" t="n">
-        <v>37.74957529707271</v>
+        <v>37.74957529707277</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75274388944555</v>
+        <v>41.7527438894456</v>
       </c>
       <c r="S43" t="n">
         <v>121.4653255556487</v>
       </c>
       <c r="T43" t="n">
-        <v>141.1538500054793</v>
+        <v>141.1538500054794</v>
       </c>
       <c r="U43" t="n">
-        <v>204.5807960422954</v>
+        <v>204.5807960422955</v>
       </c>
       <c r="V43" t="n">
         <v>170.4647570713818</v>
@@ -3961,7 +3961,7 @@
         <v>204.8501120841448</v>
       </c>
       <c r="X43" t="n">
-        <v>144.0367691365909</v>
+        <v>144.036769136591</v>
       </c>
       <c r="Y43" t="n">
         <v>136.9117670996486</v>
@@ -4031,7 +4031,7 @@
         <v>129.731531129949</v>
       </c>
       <c r="U44" t="n">
-        <v>169.459102560694</v>
+        <v>169.4591025606936</v>
       </c>
       <c r="V44" t="n">
         <v>246.0793722176887</v>
@@ -4186,10 +4186,10 @@
         <v>121.4653255556487</v>
       </c>
       <c r="T46" t="n">
-        <v>141.1538500054793</v>
+        <v>141.1538500054791</v>
       </c>
       <c r="U46" t="n">
-        <v>204.5807960422954</v>
+        <v>204.5807960422952</v>
       </c>
       <c r="V46" t="n">
         <v>170.4647570713818</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>537.5187740122494</v>
+        <v>1750.843271433913</v>
       </c>
       <c r="C11" t="n">
-        <v>215.2786873713533</v>
+        <v>1428.603184793017</v>
       </c>
       <c r="D11" t="n">
-        <v>114.1661552973429</v>
+        <v>1117.059916485782</v>
       </c>
       <c r="E11" t="n">
-        <v>114.1661552973429</v>
+        <v>1117.059916485782</v>
       </c>
       <c r="F11" t="n">
-        <v>114.1661552973429</v>
+        <v>752.7964419956907</v>
       </c>
       <c r="G11" t="n">
-        <v>114.1661552973429</v>
+        <v>382.7189366069084</v>
       </c>
       <c r="H11" t="n">
-        <v>114.1661552973429</v>
+        <v>114.1661552973428</v>
       </c>
       <c r="I11" t="n">
         <v>52.29280081400536</v>
@@ -5048,16 +5048,16 @@
         <v>399.7700548597891</v>
       </c>
       <c r="M11" t="n">
-        <v>1012.024841447361</v>
+        <v>636.0069091322268</v>
       </c>
       <c r="N11" t="n">
-        <v>1256.698063378787</v>
+        <v>1283.130319205543</v>
       </c>
       <c r="O11" t="n">
-        <v>1851.392966935572</v>
+        <v>1877.825222762328</v>
       </c>
       <c r="P11" t="n">
-        <v>2321.276925460894</v>
+        <v>2347.70918128765</v>
       </c>
       <c r="Q11" t="n">
         <v>2596.918449753698</v>
@@ -5069,22 +5069,22 @@
         <v>2511.706725936939</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.889340698681</v>
+        <v>2511.706725936939</v>
       </c>
       <c r="U11" t="n">
-        <v>2137.94309542937</v>
+        <v>2511.706725936939</v>
       </c>
       <c r="V11" t="n">
-        <v>1853.602638385315</v>
+        <v>2227.366268892884</v>
       </c>
       <c r="W11" t="n">
-        <v>1547.556413414716</v>
+        <v>1921.320043922286</v>
       </c>
       <c r="X11" t="n">
-        <v>1220.813085453152</v>
+        <v>1750.843271433913</v>
       </c>
       <c r="Y11" t="n">
-        <v>877.3961837768555</v>
+        <v>1750.843271433913</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958.7704702275041</v>
+        <v>958.7704702275046</v>
       </c>
       <c r="C12" t="n">
-        <v>784.3174409463771</v>
+        <v>784.3174409463776</v>
       </c>
       <c r="D12" t="n">
-        <v>635.383031285126</v>
+        <v>635.3830312851264</v>
       </c>
       <c r="E12" t="n">
-        <v>476.1455762796704</v>
+        <v>476.1455762796709</v>
       </c>
       <c r="F12" t="n">
-        <v>329.6110183065555</v>
+        <v>329.6110183065559</v>
       </c>
       <c r="G12" t="n">
         <v>192.3236318936952</v>
       </c>
       <c r="H12" t="n">
-        <v>92.89507826601547</v>
+        <v>92.89507826601539</v>
       </c>
       <c r="I12" t="n">
         <v>52.29280081400536</v>
@@ -5127,7 +5127,7 @@
         <v>322.369573549778</v>
       </c>
       <c r="M12" t="n">
-        <v>679.3930889194853</v>
+        <v>969.4929836230943</v>
       </c>
       <c r="N12" t="n">
         <v>1326.516498992802</v>
@@ -5145,13 +5145,13 @@
         <v>2603.090346990152</v>
       </c>
       <c r="S12" t="n">
-        <v>2456.484248862563</v>
+        <v>2456.484248862564</v>
       </c>
       <c r="T12" t="n">
-        <v>2260.115726349211</v>
+        <v>2260.115726349212</v>
       </c>
       <c r="U12" t="n">
-        <v>2031.987071178003</v>
+        <v>2031.987071178004</v>
       </c>
       <c r="V12" t="n">
         <v>1796.834962946261</v>
@@ -5160,10 +5160,10 @@
         <v>1542.597606218059</v>
       </c>
       <c r="X12" t="n">
-        <v>1334.746106012526</v>
+        <v>1334.746106012527</v>
       </c>
       <c r="Y12" t="n">
-        <v>1126.985807247572</v>
+        <v>1126.985807247573</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.29280081400536</v>
+        <v>275.697216725274</v>
       </c>
       <c r="C13" t="n">
-        <v>52.29280081400536</v>
+        <v>153.4834640968828</v>
       </c>
       <c r="D13" t="n">
-        <v>52.29280081400536</v>
+        <v>153.4834640968828</v>
       </c>
       <c r="E13" t="n">
         <v>52.29280081400536</v>
@@ -5197,52 +5197,52 @@
         <v>52.29280081400536</v>
       </c>
       <c r="J13" t="n">
-        <v>89.51354280696867</v>
+        <v>89.51354280696879</v>
       </c>
       <c r="K13" t="n">
-        <v>251.0567489464904</v>
+        <v>251.0567489464906</v>
       </c>
       <c r="L13" t="n">
-        <v>500.4966927854846</v>
+        <v>500.4966927854849</v>
       </c>
       <c r="M13" t="n">
-        <v>771.3959835616729</v>
+        <v>771.3959835616733</v>
       </c>
       <c r="N13" t="n">
-        <v>1042.37735807374</v>
+        <v>1042.377358073741</v>
       </c>
       <c r="O13" t="n">
         <v>1280.151947797892</v>
       </c>
       <c r="P13" t="n">
-        <v>1466.69763147612</v>
+        <v>1466.697631476121</v>
       </c>
       <c r="Q13" t="n">
-        <v>1526.505307245896</v>
+        <v>1526.505307245897</v>
       </c>
       <c r="R13" t="n">
-        <v>1448.555383866733</v>
+        <v>1526.505307245897</v>
       </c>
       <c r="S13" t="n">
-        <v>1290.087701228779</v>
+        <v>1368.037624607943</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.732620156653</v>
+        <v>1216.345281936422</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3099168251156</v>
+        <v>973.9225786048851</v>
       </c>
       <c r="V13" t="n">
-        <v>661.3478589187444</v>
+        <v>765.960520698514</v>
       </c>
       <c r="W13" t="n">
-        <v>418.6531191812993</v>
+        <v>765.960520698514</v>
       </c>
       <c r="X13" t="n">
-        <v>237.3859985827976</v>
+        <v>584.6934001000124</v>
       </c>
       <c r="Y13" t="n">
-        <v>63.31584973878307</v>
+        <v>410.623251255998</v>
       </c>
     </row>
     <row r="14">
@@ -5252,58 +5252,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1174.549388777892</v>
+        <v>1517.966290454189</v>
       </c>
       <c r="C14" t="n">
-        <v>852.3093021369955</v>
+        <v>1195.726203813293</v>
       </c>
       <c r="D14" t="n">
-        <v>540.766033829761</v>
+        <v>1195.726203813293</v>
       </c>
       <c r="E14" t="n">
-        <v>201.7002115310321</v>
+        <v>856.6603815145643</v>
       </c>
       <c r="F14" t="n">
-        <v>201.7002115310321</v>
+        <v>492.3969070244725</v>
       </c>
       <c r="G14" t="n">
-        <v>201.7002115310321</v>
+        <v>395.4595489022212</v>
       </c>
       <c r="H14" t="n">
-        <v>126.9067675926558</v>
+        <v>126.9067675926557</v>
       </c>
       <c r="I14" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="J14" t="n">
         <v>110.2120704750214</v>
       </c>
       <c r="K14" t="n">
-        <v>228.6616847534296</v>
+        <v>370.4666189760444</v>
       </c>
       <c r="L14" t="n">
-        <v>534.8267486147975</v>
+        <v>967.8002037826627</v>
       </c>
       <c r="M14" t="n">
-        <v>1216.082001045139</v>
+        <v>1649.055456213005</v>
       </c>
       <c r="N14" t="n">
         <v>1893.72867814443</v>
       </c>
       <c r="O14" t="n">
-        <v>2488.423581701215</v>
+        <v>2488.423581701216</v>
       </c>
       <c r="P14" t="n">
-        <v>2958.307540226536</v>
+        <v>2958.307540226537</v>
       </c>
       <c r="Q14" t="n">
-        <v>3233.94906451934</v>
+        <v>3233.949064519341</v>
       </c>
       <c r="R14" t="n">
-        <v>3251.67065546591</v>
+        <v>3251.670655465911</v>
       </c>
       <c r="S14" t="n">
-        <v>3148.737340702581</v>
+        <v>3148.737340702582</v>
       </c>
       <c r="T14" t="n">
         <v>2981.919955464324</v>
@@ -5315,13 +5315,13 @@
         <v>2490.633253150957</v>
       </c>
       <c r="W14" t="n">
-        <v>2184.587028180358</v>
+        <v>2184.587028180359</v>
       </c>
       <c r="X14" t="n">
-        <v>1857.843700218794</v>
+        <v>1857.843700218795</v>
       </c>
       <c r="Y14" t="n">
-        <v>1514.426798542498</v>
+        <v>1857.843700218795</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>105.6356905613283</v>
       </c>
       <c r="I15" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="J15" t="n">
-        <v>73.12366497455065</v>
+        <v>73.12366497455068</v>
       </c>
       <c r="K15" t="n">
-        <v>165.1060187335155</v>
+        <v>165.1060187335156</v>
       </c>
       <c r="L15" t="n">
         <v>335.1101858450909</v>
       </c>
       <c r="M15" t="n">
-        <v>1013.901911570535</v>
+        <v>626.7927750030792</v>
       </c>
       <c r="N15" t="n">
         <v>1339.257111288115</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>65.0334131093182</v>
+        <v>187.2471657377095</v>
       </c>
       <c r="C16" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="D16" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="E16" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="F16" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="G16" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="H16" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="I16" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="J16" t="n">
-        <v>102.2541551022814</v>
+        <v>102.2541551022815</v>
       </c>
       <c r="K16" t="n">
-        <v>263.7973612418031</v>
+        <v>263.7973612418033</v>
       </c>
       <c r="L16" t="n">
-        <v>513.2373050807972</v>
+        <v>513.2373050807976</v>
       </c>
       <c r="M16" t="n">
-        <v>784.1365958569857</v>
+        <v>784.136595856986</v>
       </c>
       <c r="N16" t="n">
-        <v>1055.117970369053</v>
+        <v>1055.117970369054</v>
       </c>
       <c r="O16" t="n">
-        <v>1292.892560093204</v>
+        <v>1292.892560093205</v>
       </c>
       <c r="P16" t="n">
         <v>1479.438243771433</v>
@@ -5464,22 +5464,22 @@
         <v>1302.828313524092</v>
       </c>
       <c r="T16" t="n">
-        <v>1124.473232451965</v>
+        <v>1124.473232451966</v>
       </c>
       <c r="U16" t="n">
-        <v>882.0505291204287</v>
+        <v>882.0505291204295</v>
       </c>
       <c r="V16" t="n">
-        <v>674.0884712140573</v>
+        <v>674.0884712140582</v>
       </c>
       <c r="W16" t="n">
-        <v>431.3937314766123</v>
+        <v>503.4403208669352</v>
       </c>
       <c r="X16" t="n">
-        <v>250.1266108781106</v>
+        <v>322.1732002684334</v>
       </c>
       <c r="Y16" t="n">
-        <v>76.05646203409607</v>
+        <v>322.1732002684334</v>
       </c>
     </row>
     <row r="17">
@@ -5495,55 +5495,55 @@
         <v>1409.169492487034</v>
       </c>
       <c r="D17" t="n">
-        <v>1159.499578663137</v>
+        <v>1159.499578663136</v>
       </c>
       <c r="E17" t="n">
-        <v>882.3071108477455</v>
+        <v>882.3071108477452</v>
       </c>
       <c r="F17" t="n">
-        <v>579.9169908409907</v>
+        <v>579.9169908409908</v>
       </c>
       <c r="G17" t="n">
         <v>271.7128399355464</v>
       </c>
       <c r="H17" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="I17" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="J17" t="n">
         <v>110.2120704750214</v>
       </c>
       <c r="K17" t="n">
-        <v>228.6616847534296</v>
+        <v>549.5656431988828</v>
       </c>
       <c r="L17" t="n">
-        <v>825.995269560048</v>
+        <v>1146.899228005501</v>
       </c>
       <c r="M17" t="n">
-        <v>1507.25052199039</v>
+        <v>1828.154480435843</v>
       </c>
       <c r="N17" t="n">
-        <v>2184.89719908968</v>
+        <v>2103.920518897736</v>
       </c>
       <c r="O17" t="n">
-        <v>2488.423581701215</v>
+        <v>2698.615422454522</v>
       </c>
       <c r="P17" t="n">
-        <v>2958.307540226536</v>
+        <v>3168.499380979843</v>
       </c>
       <c r="Q17" t="n">
-        <v>3233.94906451934</v>
+        <v>3233.949064519341</v>
       </c>
       <c r="R17" t="n">
-        <v>3251.67065546591</v>
+        <v>3251.670655465911</v>
       </c>
       <c r="S17" t="n">
-        <v>3210.610695185918</v>
+        <v>3210.61069518592</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.666664430998</v>
+        <v>3105.666664431</v>
       </c>
       <c r="U17" t="n">
         <v>2960.593773645025</v>
@@ -5552,10 +5552,10 @@
         <v>2738.126671084307</v>
       </c>
       <c r="W17" t="n">
-        <v>2493.953800597047</v>
+        <v>2493.953800597046</v>
       </c>
       <c r="X17" t="n">
-        <v>2229.08382711882</v>
+        <v>2229.083827118819</v>
       </c>
       <c r="Y17" t="n">
         <v>1947.540279925861</v>
@@ -5589,13 +5589,13 @@
         <v>105.6356905613283</v>
       </c>
       <c r="I18" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="J18" t="n">
-        <v>73.12366497455065</v>
+        <v>73.12366497455068</v>
       </c>
       <c r="K18" t="n">
-        <v>165.1060187335155</v>
+        <v>165.1060187335156</v>
       </c>
       <c r="L18" t="n">
         <v>335.1101858450909</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>360.9319273780652</v>
+        <v>360.9319273780653</v>
       </c>
       <c r="C19" t="n">
-        <v>300.5915292330114</v>
+        <v>300.5915292330116</v>
       </c>
       <c r="D19" t="n">
-        <v>259.0706746035288</v>
+        <v>259.070674603529</v>
       </c>
       <c r="E19" t="n">
-        <v>219.7533658039889</v>
+        <v>219.753365803989</v>
       </c>
       <c r="F19" t="n">
-        <v>181.4592030889316</v>
+        <v>181.4592030889318</v>
       </c>
       <c r="G19" t="n">
         <v>121.5772607070815</v>
       </c>
       <c r="H19" t="n">
-        <v>77.06637736638318</v>
+        <v>77.06637736638324</v>
       </c>
       <c r="I19" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="J19" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931823</v>
       </c>
       <c r="K19" t="n">
-        <v>180.7839653122847</v>
+        <v>287.218693977959</v>
       </c>
       <c r="L19" t="n">
-        <v>384.4312552147236</v>
+        <v>498.7071556225548</v>
       </c>
       <c r="M19" t="n">
-        <v>609.5378920543568</v>
+        <v>723.813792462188</v>
       </c>
       <c r="N19" t="n">
-        <v>834.7266126298691</v>
+        <v>949.0025130377003</v>
       </c>
       <c r="O19" t="n">
-        <v>1133.143277083139</v>
+        <v>1247.41917749097</v>
       </c>
       <c r="P19" t="n">
-        <v>1380.331035490487</v>
+        <v>1388.172207232643</v>
       </c>
       <c r="Q19" t="n">
         <v>1402.187229065864</v>
       </c>
       <c r="R19" t="n">
-        <v>1386.110660170038</v>
+        <v>1386.110660170039</v>
       </c>
       <c r="S19" t="n">
         <v>1289.516332015422</v>
@@ -5704,19 +5704,19 @@
         <v>1173.034605426633</v>
       </c>
       <c r="U19" t="n">
-        <v>992.485256578434</v>
+        <v>992.4852565784344</v>
       </c>
       <c r="V19" t="n">
-        <v>846.3965531554003</v>
+        <v>846.3965531554006</v>
       </c>
       <c r="W19" t="n">
-        <v>665.5751679012928</v>
+        <v>665.5751679012931</v>
       </c>
       <c r="X19" t="n">
-        <v>546.1814017861286</v>
+        <v>546.1814017861288</v>
       </c>
       <c r="Y19" t="n">
-        <v>433.9846074254517</v>
+        <v>433.9846074254519</v>
       </c>
     </row>
     <row r="20">
@@ -5726,64 +5726,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1669.536224644591</v>
+        <v>1669.536224644593</v>
       </c>
       <c r="C20" t="n">
-        <v>1409.169492487033</v>
+        <v>1409.169492487034</v>
       </c>
       <c r="D20" t="n">
-        <v>1159.499578663135</v>
+        <v>1159.499578663137</v>
       </c>
       <c r="E20" t="n">
-        <v>882.3071108477448</v>
+        <v>882.3071108477457</v>
       </c>
       <c r="F20" t="n">
-        <v>579.9169908409908</v>
+        <v>579.9169908409913</v>
       </c>
       <c r="G20" t="n">
         <v>271.7128399355464</v>
       </c>
       <c r="H20" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="I20" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J20" t="n">
-        <v>110.2120704750214</v>
+        <v>277.6177194953744</v>
       </c>
       <c r="K20" t="n">
-        <v>228.6616847534296</v>
+        <v>716.9712922192357</v>
       </c>
       <c r="L20" t="n">
-        <v>534.8267486147975</v>
+        <v>900.8202746209081</v>
       </c>
       <c r="M20" t="n">
-        <v>1216.082001045139</v>
+        <v>1582.07552705125</v>
       </c>
       <c r="N20" t="n">
-        <v>1893.72867814443</v>
+        <v>2121.642109844305</v>
       </c>
       <c r="O20" t="n">
-        <v>2488.423581701215</v>
+        <v>2716.33701340109</v>
       </c>
       <c r="P20" t="n">
-        <v>2958.307540226536</v>
+        <v>3186.220971926411</v>
       </c>
       <c r="Q20" t="n">
-        <v>3233.94906451934</v>
+        <v>3251.670655465909</v>
       </c>
       <c r="R20" t="n">
-        <v>3251.67065546591</v>
+        <v>3251.670655465909</v>
       </c>
       <c r="S20" t="n">
-        <v>3210.610695185919</v>
+        <v>3210.610695185918</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.666664430999</v>
+        <v>3105.666664430998</v>
       </c>
       <c r="U20" t="n">
-        <v>2960.593773645025</v>
+        <v>2960.593773645024</v>
       </c>
       <c r="V20" t="n">
         <v>2738.126671084307</v>
@@ -5792,10 +5792,10 @@
         <v>2493.953800597045</v>
       </c>
       <c r="X20" t="n">
-        <v>2229.083827118819</v>
+        <v>2229.08382711882</v>
       </c>
       <c r="Y20" t="n">
-        <v>1947.54027992586</v>
+        <v>1947.540279925861</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>648.1236435804396</v>
       </c>
       <c r="E21" t="n">
-        <v>488.8861885749842</v>
+        <v>488.8861885749841</v>
       </c>
       <c r="F21" t="n">
         <v>342.3516306018691</v>
@@ -5826,10 +5826,10 @@
         <v>105.6356905613283</v>
       </c>
       <c r="I21" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J21" t="n">
-        <v>73.12366497455065</v>
+        <v>73.12366497455062</v>
       </c>
       <c r="K21" t="n">
         <v>165.1060187335155</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>360.9319273780652</v>
+        <v>360.9319273780653</v>
       </c>
       <c r="C22" t="n">
-        <v>300.5915292330114</v>
+        <v>300.5915292330116</v>
       </c>
       <c r="D22" t="n">
-        <v>259.0706746035289</v>
+        <v>259.070674603529</v>
       </c>
       <c r="E22" t="n">
-        <v>219.7533658039889</v>
+        <v>219.753365803989</v>
       </c>
       <c r="F22" t="n">
         <v>181.4592030889317</v>
@@ -5905,22 +5905,22 @@
         <v>77.06637736638319</v>
       </c>
       <c r="I22" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J22" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="K22" t="n">
-        <v>188.6251370544412</v>
+        <v>180.7839653122847</v>
       </c>
       <c r="L22" t="n">
-        <v>392.2724269568801</v>
+        <v>490.8659838803979</v>
       </c>
       <c r="M22" t="n">
-        <v>617.3790637965133</v>
+        <v>822.4073493857054</v>
       </c>
       <c r="N22" t="n">
-        <v>949.0025130377001</v>
+        <v>1055.437241703375</v>
       </c>
       <c r="O22" t="n">
         <v>1247.41917749097</v>
@@ -5932,7 +5932,7 @@
         <v>1402.187229065864</v>
       </c>
       <c r="R22" t="n">
-        <v>1386.110660170038</v>
+        <v>1386.110660170039</v>
       </c>
       <c r="S22" t="n">
         <v>1289.516332015422</v>
@@ -5941,19 +5941,19 @@
         <v>1173.034605426633</v>
       </c>
       <c r="U22" t="n">
-        <v>992.4852565784341</v>
+        <v>992.4852565784344</v>
       </c>
       <c r="V22" t="n">
-        <v>846.3965531554004</v>
+        <v>846.3965531554006</v>
       </c>
       <c r="W22" t="n">
-        <v>665.575167901293</v>
+        <v>665.5751679012931</v>
       </c>
       <c r="X22" t="n">
-        <v>546.1814017861287</v>
+        <v>546.1814017861288</v>
       </c>
       <c r="Y22" t="n">
-        <v>433.9846074254518</v>
+        <v>433.9846074254519</v>
       </c>
     </row>
     <row r="23">
@@ -5966,58 +5966,58 @@
         <v>1669.536224644592</v>
       </c>
       <c r="C23" t="n">
-        <v>1409.169492487033</v>
+        <v>1409.169492487034</v>
       </c>
       <c r="D23" t="n">
         <v>1159.499578663136</v>
       </c>
       <c r="E23" t="n">
-        <v>882.307110847745</v>
+        <v>882.3071108477452</v>
       </c>
       <c r="F23" t="n">
-        <v>579.9169908409906</v>
+        <v>579.9169908409908</v>
       </c>
       <c r="G23" t="n">
         <v>271.7128399355464</v>
       </c>
       <c r="H23" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="I23" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J23" t="n">
-        <v>110.2120704750214</v>
+        <v>159.0264779520575</v>
       </c>
       <c r="K23" t="n">
-        <v>350.9777662131251</v>
+        <v>598.3800506759187</v>
       </c>
       <c r="L23" t="n">
-        <v>534.8267486147975</v>
+        <v>1195.713635482537</v>
       </c>
       <c r="M23" t="n">
-        <v>1216.082001045139</v>
+        <v>1876.968887912879</v>
       </c>
       <c r="N23" t="n">
-        <v>1893.72867814443</v>
+        <v>2121.642109844305</v>
       </c>
       <c r="O23" t="n">
-        <v>2488.423581701215</v>
+        <v>2716.33701340109</v>
       </c>
       <c r="P23" t="n">
-        <v>2958.307540226536</v>
+        <v>3186.220971926411</v>
       </c>
       <c r="Q23" t="n">
-        <v>3233.94906451934</v>
+        <v>3251.670655465909</v>
       </c>
       <c r="R23" t="n">
-        <v>3251.67065546591</v>
+        <v>3251.670655465909</v>
       </c>
       <c r="S23" t="n">
-        <v>3210.610695185919</v>
+        <v>3210.610695185918</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.666664430999</v>
+        <v>3105.666664430998</v>
       </c>
       <c r="U23" t="n">
         <v>2960.593773645025</v>
@@ -6032,7 +6032,7 @@
         <v>2229.083827118819</v>
       </c>
       <c r="Y23" t="n">
-        <v>1947.54027992586</v>
+        <v>1947.540279925861</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>648.1236435804396</v>
       </c>
       <c r="E24" t="n">
-        <v>488.8861885749842</v>
+        <v>488.8861885749841</v>
       </c>
       <c r="F24" t="n">
         <v>342.3516306018691</v>
@@ -6063,28 +6063,28 @@
         <v>105.6356905613283</v>
       </c>
       <c r="I24" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J24" t="n">
-        <v>73.12366497455065</v>
+        <v>197.9537899615554</v>
       </c>
       <c r="K24" t="n">
-        <v>239.0448952785601</v>
+        <v>289.9361437205202</v>
       </c>
       <c r="L24" t="n">
-        <v>409.0490623901354</v>
+        <v>827.0722526825202</v>
       </c>
       <c r="M24" t="n">
-        <v>626.7927750030792</v>
+        <v>1505.863978407964</v>
       </c>
       <c r="N24" t="n">
-        <v>1339.257111288115</v>
+        <v>1743.779364092881</v>
       </c>
       <c r="O24" t="n">
-        <v>1924.607109531682</v>
+        <v>2132.583624390173</v>
       </c>
       <c r="P24" t="n">
-        <v>2377.399020812165</v>
+        <v>2585.375535670656</v>
       </c>
       <c r="Q24" t="n">
         <v>2627.380652995581</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.9319273780652</v>
+        <v>360.9319273780653</v>
       </c>
       <c r="C25" t="n">
-        <v>300.5915292330114</v>
+        <v>300.5915292330116</v>
       </c>
       <c r="D25" t="n">
-        <v>259.0706746035289</v>
+        <v>259.070674603529</v>
       </c>
       <c r="E25" t="n">
-        <v>219.7533658039889</v>
+        <v>219.753365803989</v>
       </c>
       <c r="F25" t="n">
         <v>181.4592030889317</v>
@@ -6142,22 +6142,22 @@
         <v>77.06637736638319</v>
       </c>
       <c r="I25" t="n">
-        <v>65.0334131093182</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J25" t="n">
-        <v>162.8962298314006</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="K25" t="n">
-        <v>278.6467820343671</v>
+        <v>180.7839653122847</v>
       </c>
       <c r="L25" t="n">
-        <v>482.2940719368061</v>
+        <v>490.8659838803979</v>
       </c>
       <c r="M25" t="n">
-        <v>707.4007087764392</v>
+        <v>715.972620720031</v>
       </c>
       <c r="N25" t="n">
-        <v>932.5894293519515</v>
+        <v>941.1613412955434</v>
       </c>
       <c r="O25" t="n">
         <v>1140.984448825296</v>
@@ -6169,7 +6169,7 @@
         <v>1402.187229065864</v>
       </c>
       <c r="R25" t="n">
-        <v>1386.110660170038</v>
+        <v>1386.110660170039</v>
       </c>
       <c r="S25" t="n">
         <v>1289.516332015422</v>
@@ -6178,19 +6178,19 @@
         <v>1173.034605426633</v>
       </c>
       <c r="U25" t="n">
-        <v>992.4852565784341</v>
+        <v>992.4852565784344</v>
       </c>
       <c r="V25" t="n">
-        <v>846.3965531554004</v>
+        <v>846.3965531554006</v>
       </c>
       <c r="W25" t="n">
-        <v>665.575167901293</v>
+        <v>665.5751679012931</v>
       </c>
       <c r="X25" t="n">
-        <v>546.1814017861287</v>
+        <v>546.1814017861288</v>
       </c>
       <c r="Y25" t="n">
-        <v>433.9846074254518</v>
+        <v>433.9846074254519</v>
       </c>
     </row>
     <row r="26">
@@ -6206,52 +6206,52 @@
         <v>1573.746170922753</v>
       </c>
       <c r="D26" t="n">
-        <v>1297.978337217462</v>
+        <v>1297.978337217463</v>
       </c>
       <c r="E26" t="n">
-        <v>994.6879495206788</v>
+        <v>994.6879495206792</v>
       </c>
       <c r="F26" t="n">
-        <v>666.1999096325321</v>
+        <v>666.1999096325326</v>
       </c>
       <c r="G26" t="n">
-        <v>331.8978388456953</v>
+        <v>331.8978388456958</v>
       </c>
       <c r="H26" t="n">
-        <v>99.12049213807551</v>
+        <v>99.12049213807549</v>
       </c>
       <c r="I26" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J26" t="n">
-        <v>118.2012296223864</v>
+        <v>285.6068786427394</v>
       </c>
       <c r="K26" t="n">
-        <v>336.9511211764291</v>
+        <v>724.9604513666006</v>
       </c>
       <c r="L26" t="n">
-        <v>934.2847059830474</v>
+        <v>1322.294036173219</v>
       </c>
       <c r="M26" t="n">
-        <v>1615.539958413389</v>
+        <v>2003.549288603561</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.186635512679</v>
+        <v>2521.100067212556</v>
       </c>
       <c r="O26" t="n">
-        <v>2887.881539069465</v>
+        <v>3115.794970769341</v>
       </c>
       <c r="P26" t="n">
-        <v>3357.765497594786</v>
+        <v>3585.678929294662</v>
       </c>
       <c r="Q26" t="n">
-        <v>3633.40702188759</v>
+        <v>3651.12861283416</v>
       </c>
       <c r="R26" t="n">
         <v>3651.12861283416</v>
       </c>
       <c r="S26" t="n">
-        <v>3583.970732672777</v>
+        <v>3583.970732672776</v>
       </c>
       <c r="T26" t="n">
         <v>3452.928782036464</v>
@@ -6303,22 +6303,22 @@
         <v>73.0225722566832</v>
       </c>
       <c r="J27" t="n">
-        <v>81.11282412191565</v>
+        <v>205.9429491089204</v>
       </c>
       <c r="K27" t="n">
-        <v>173.0951778808805</v>
+        <v>559.7458875103381</v>
       </c>
       <c r="L27" t="n">
-        <v>343.0993449924559</v>
+        <v>729.7500546219135</v>
       </c>
       <c r="M27" t="n">
-        <v>634.7819341504444</v>
+        <v>1339.983771187944</v>
       </c>
       <c r="N27" t="n">
-        <v>1347.24627043548</v>
+        <v>2052.44810747298</v>
       </c>
       <c r="O27" t="n">
-        <v>1932.596268679048</v>
+        <v>2247.874409632585</v>
       </c>
       <c r="P27" t="n">
         <v>2385.388179959531</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.6065256951763</v>
+        <v>551.6065256951764</v>
       </c>
       <c r="C28" t="n">
-        <v>465.1682076687302</v>
+        <v>465.1682076687303</v>
       </c>
       <c r="D28" t="n">
         <v>397.5494331578554</v>
@@ -6373,7 +6373,7 @@
         <v>267.7421218804736</v>
       </c>
       <c r="G28" t="n">
-        <v>181.7622596172311</v>
+        <v>181.7622596172312</v>
       </c>
       <c r="H28" t="n">
         <v>111.1534563951405</v>
@@ -6382,7 +6382,7 @@
         <v>73.0225722566832</v>
       </c>
       <c r="J28" t="n">
-        <v>145.306817703013</v>
+        <v>145.3068177030129</v>
       </c>
       <c r="K28" t="n">
         <v>341.9135272959012</v>
@@ -6391,13 +6391,13 @@
         <v>626.416974588262</v>
       </c>
       <c r="M28" t="n">
-        <v>932.3797688178166</v>
+        <v>932.3797688178169</v>
       </c>
       <c r="N28" t="n">
         <v>1238.424646783251</v>
       </c>
       <c r="O28" t="n">
-        <v>1511.262739960768</v>
+        <v>1511.262739960769</v>
       </c>
       <c r="P28" t="n">
         <v>1732.871927092363</v>
@@ -6421,13 +6421,13 @@
         <v>1141.462830998081</v>
       </c>
       <c r="W28" t="n">
-        <v>934.543525862581</v>
+        <v>934.5435258625811</v>
       </c>
       <c r="X28" t="n">
-        <v>789.0518398660245</v>
+        <v>789.0518398660246</v>
       </c>
       <c r="Y28" t="n">
-        <v>650.7571256239552</v>
+        <v>650.7571256239553</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1860.210822961703</v>
+        <v>1860.210822961704</v>
       </c>
       <c r="C29" t="n">
         <v>1573.746170922753</v>
@@ -6449,13 +6449,13 @@
         <v>994.6879495206795</v>
       </c>
       <c r="F29" t="n">
-        <v>666.1999096325327</v>
+        <v>666.1999096325328</v>
       </c>
       <c r="G29" t="n">
-        <v>331.8978388456959</v>
+        <v>331.897838845696</v>
       </c>
       <c r="H29" t="n">
-        <v>99.12049213807551</v>
+        <v>99.12049213807553</v>
       </c>
       <c r="I29" t="n">
         <v>73.0225722566832</v>
@@ -6467,19 +6467,19 @@
         <v>557.5548023462477</v>
       </c>
       <c r="L29" t="n">
-        <v>934.2847059830469</v>
+        <v>1154.888387152866</v>
       </c>
       <c r="M29" t="n">
-        <v>1615.539958413389</v>
+        <v>1836.143639583208</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.186635512679</v>
+        <v>2513.790316682498</v>
       </c>
       <c r="O29" t="n">
-        <v>2887.881539069464</v>
+        <v>3108.485220239284</v>
       </c>
       <c r="P29" t="n">
-        <v>3357.765497594786</v>
+        <v>3567.957338348092</v>
       </c>
       <c r="Q29" t="n">
         <v>3633.40702188759</v>
@@ -6494,19 +6494,19 @@
         <v>3452.928782036464</v>
       </c>
       <c r="U29" t="n">
-        <v>3281.757971369097</v>
+        <v>3281.757971369098</v>
       </c>
       <c r="V29" t="n">
-        <v>3033.192948926987</v>
+        <v>3033.192948926988</v>
       </c>
       <c r="W29" t="n">
-        <v>2762.922158558334</v>
+        <v>2762.922158558335</v>
       </c>
       <c r="X29" t="n">
         <v>2471.954265198715</v>
       </c>
       <c r="Y29" t="n">
-        <v>2164.312798124364</v>
+        <v>2164.312798124365</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>73.0225722566832</v>
       </c>
       <c r="J30" t="n">
-        <v>81.11282412191565</v>
+        <v>205.9429491089204</v>
       </c>
       <c r="K30" t="n">
-        <v>173.0951778808805</v>
+        <v>559.7458875103381</v>
       </c>
       <c r="L30" t="n">
-        <v>343.0993449924559</v>
+        <v>729.7500546219135</v>
       </c>
       <c r="M30" t="n">
-        <v>634.7819341504444</v>
+        <v>1408.541780347357</v>
       </c>
       <c r="N30" t="n">
-        <v>1347.24627043548</v>
+        <v>1737.169966519442</v>
       </c>
       <c r="O30" t="n">
         <v>1932.596268679048</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>551.6065256951761</v>
+        <v>551.6065256951764</v>
       </c>
       <c r="C31" t="n">
-        <v>465.16820766873</v>
+        <v>465.1682076687303</v>
       </c>
       <c r="D31" t="n">
-        <v>397.5494331578551</v>
+        <v>397.5494331578554</v>
       </c>
       <c r="E31" t="n">
-        <v>332.1342044769228</v>
+        <v>332.1342044769231</v>
       </c>
       <c r="F31" t="n">
-        <v>267.7421218804733</v>
+        <v>267.7421218804735</v>
       </c>
       <c r="G31" t="n">
-        <v>181.7622596172307</v>
+        <v>181.7622596172311</v>
       </c>
       <c r="H31" t="n">
-        <v>111.1534563951403</v>
+        <v>111.1534563951405</v>
       </c>
       <c r="I31" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J31" t="n">
-        <v>145.3068177030131</v>
+        <v>145.306817703013</v>
       </c>
       <c r="K31" t="n">
-        <v>341.9135272959013</v>
+        <v>341.9135272959012</v>
       </c>
       <c r="L31" t="n">
-        <v>626.416974588262</v>
+        <v>626.4169745882618</v>
       </c>
       <c r="M31" t="n">
         <v>932.3797688178167</v>
@@ -6646,7 +6646,7 @@
         <v>1785.568617538288</v>
       </c>
       <c r="S31" t="n">
-        <v>1662.876369502279</v>
+        <v>1662.87636950228</v>
       </c>
       <c r="T31" t="n">
         <v>1520.296723032098</v>
@@ -6658,13 +6658,13 @@
         <v>1141.462830998081</v>
       </c>
       <c r="W31" t="n">
-        <v>934.5435258625807</v>
+        <v>934.5435258625812</v>
       </c>
       <c r="X31" t="n">
-        <v>789.0518398660242</v>
+        <v>789.0518398660247</v>
       </c>
       <c r="Y31" t="n">
-        <v>650.7571256239549</v>
+        <v>650.7571256239553</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1860.210822961703</v>
       </c>
       <c r="C32" t="n">
-        <v>1573.746170922753</v>
+        <v>1573.746170922752</v>
       </c>
       <c r="D32" t="n">
-        <v>1297.978337217463</v>
+        <v>1297.978337217462</v>
       </c>
       <c r="E32" t="n">
-        <v>994.6879495206795</v>
+        <v>994.6879495206788</v>
       </c>
       <c r="F32" t="n">
-        <v>666.1999096325327</v>
+        <v>666.1999096325321</v>
       </c>
       <c r="G32" t="n">
-        <v>331.8978388456959</v>
+        <v>331.8978388456953</v>
       </c>
       <c r="H32" t="n">
         <v>99.12049213807551</v>
@@ -6780,22 +6780,22 @@
         <v>81.11282412191565</v>
       </c>
       <c r="K33" t="n">
-        <v>173.0951778808805</v>
+        <v>434.9157625233333</v>
       </c>
       <c r="L33" t="n">
-        <v>343.0993449924559</v>
+        <v>604.9199296349087</v>
       </c>
       <c r="M33" t="n">
-        <v>634.7819341504444</v>
+        <v>1283.711655360352</v>
       </c>
       <c r="N33" t="n">
-        <v>1347.24627043548</v>
+        <v>1870.500926247508</v>
       </c>
       <c r="O33" t="n">
-        <v>1932.596268679048</v>
+        <v>2455.850924491076</v>
       </c>
       <c r="P33" t="n">
-        <v>2385.388179959531</v>
+        <v>2593.364694818021</v>
       </c>
       <c r="Q33" t="n">
         <v>2635.369812142946</v>
@@ -6865,13 +6865,13 @@
         <v>626.4169745882621</v>
       </c>
       <c r="M34" t="n">
-        <v>932.379768817817</v>
+        <v>932.3797688178167</v>
       </c>
       <c r="N34" t="n">
         <v>1238.424646783251</v>
       </c>
       <c r="O34" t="n">
-        <v>1511.262739960769</v>
+        <v>1511.262739960768</v>
       </c>
       <c r="P34" t="n">
         <v>1732.871927092363</v>
@@ -6935,16 +6935,16 @@
         <v>73.0225722566832</v>
       </c>
       <c r="J35" t="n">
-        <v>118.2012296223864</v>
+        <v>285.6068786427394</v>
       </c>
       <c r="K35" t="n">
-        <v>336.9511211764291</v>
+        <v>724.9604513666006</v>
       </c>
       <c r="L35" t="n">
-        <v>934.2847059830474</v>
+        <v>1322.294036173219</v>
       </c>
       <c r="M35" t="n">
-        <v>1615.539958413389</v>
+        <v>2003.549288603561</v>
       </c>
       <c r="N35" t="n">
         <v>2293.186635512679</v>
@@ -7014,25 +7014,25 @@
         <v>73.0225722566832</v>
       </c>
       <c r="J36" t="n">
-        <v>81.11282412191565</v>
+        <v>205.9429491089204</v>
       </c>
       <c r="K36" t="n">
-        <v>173.0951778808805</v>
+        <v>416.657705875147</v>
       </c>
       <c r="L36" t="n">
-        <v>343.0993449924559</v>
+        <v>953.793814837147</v>
       </c>
       <c r="M36" t="n">
-        <v>634.7819341504444</v>
+        <v>1632.585540562591</v>
       </c>
       <c r="N36" t="n">
-        <v>1347.24627043548</v>
+        <v>1870.500926247508</v>
       </c>
       <c r="O36" t="n">
-        <v>1932.596268679048</v>
+        <v>2455.850924491076</v>
       </c>
       <c r="P36" t="n">
-        <v>2385.388179959531</v>
+        <v>2593.364694818021</v>
       </c>
       <c r="Q36" t="n">
         <v>2635.369812142946</v>
@@ -7081,28 +7081,28 @@
         <v>332.1342044769233</v>
       </c>
       <c r="F37" t="n">
-        <v>267.7421218804739</v>
+        <v>267.7421218804738</v>
       </c>
       <c r="G37" t="n">
-        <v>181.7622596172311</v>
+        <v>181.7622596172313</v>
       </c>
       <c r="H37" t="n">
-        <v>111.1534563951405</v>
+        <v>111.1534563951407</v>
       </c>
       <c r="I37" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J37" t="n">
-        <v>145.3068177030131</v>
+        <v>145.306817703013</v>
       </c>
       <c r="K37" t="n">
-        <v>341.9135272959013</v>
+        <v>341.9135272959012</v>
       </c>
       <c r="L37" t="n">
-        <v>626.4169745882621</v>
+        <v>626.416974588262</v>
       </c>
       <c r="M37" t="n">
-        <v>932.3797688178172</v>
+        <v>932.3797688178169</v>
       </c>
       <c r="N37" t="n">
         <v>1238.424646783251</v>
@@ -7111,7 +7111,7 @@
         <v>1511.262739960769</v>
       </c>
       <c r="P37" t="n">
-        <v>1732.871927092364</v>
+        <v>1732.871927092363</v>
       </c>
       <c r="Q37" t="n">
         <v>1827.743106315506</v>
@@ -7157,43 +7157,43 @@
         <v>1297.978337217463</v>
       </c>
       <c r="E38" t="n">
-        <v>994.6879495206795</v>
+        <v>994.6879495206792</v>
       </c>
       <c r="F38" t="n">
-        <v>666.1999096325328</v>
+        <v>666.1999096325326</v>
       </c>
       <c r="G38" t="n">
-        <v>331.897838845696</v>
+        <v>331.8978388456958</v>
       </c>
       <c r="H38" t="n">
-        <v>99.12049213807552</v>
+        <v>99.12049213807551</v>
       </c>
       <c r="I38" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J38" t="n">
-        <v>118.2012296223864</v>
+        <v>285.6068786427394</v>
       </c>
       <c r="K38" t="n">
-        <v>336.9511211764291</v>
+        <v>724.9604513666006</v>
       </c>
       <c r="L38" t="n">
-        <v>934.2847059830474</v>
+        <v>1322.294036173219</v>
       </c>
       <c r="M38" t="n">
-        <v>1615.539958413389</v>
+        <v>2003.549288603561</v>
       </c>
       <c r="N38" t="n">
-        <v>2293.186635512679</v>
+        <v>2521.100067212556</v>
       </c>
       <c r="O38" t="n">
-        <v>2887.881539069465</v>
+        <v>3115.794970769341</v>
       </c>
       <c r="P38" t="n">
-        <v>3357.765497594786</v>
+        <v>3585.678929294662</v>
       </c>
       <c r="Q38" t="n">
-        <v>3633.40702188759</v>
+        <v>3651.12861283416</v>
       </c>
       <c r="R38" t="n">
         <v>3651.12861283416</v>
@@ -7254,22 +7254,22 @@
         <v>81.11282412191565</v>
       </c>
       <c r="K39" t="n">
-        <v>173.0951778808805</v>
+        <v>434.9157625233333</v>
       </c>
       <c r="L39" t="n">
-        <v>343.0993449924559</v>
+        <v>953.793814837147</v>
       </c>
       <c r="M39" t="n">
-        <v>634.7819341504444</v>
+        <v>1632.585540562591</v>
       </c>
       <c r="N39" t="n">
-        <v>1347.24627043548</v>
+        <v>1870.500926247508</v>
       </c>
       <c r="O39" t="n">
-        <v>1932.596268679048</v>
+        <v>2455.850924491076</v>
       </c>
       <c r="P39" t="n">
-        <v>2385.388179959531</v>
+        <v>2593.364694818021</v>
       </c>
       <c r="Q39" t="n">
         <v>2635.369812142946</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>551.6065256951764</v>
+        <v>551.6065256951763</v>
       </c>
       <c r="C40" t="n">
-        <v>465.1682076687304</v>
+        <v>465.1682076687302</v>
       </c>
       <c r="D40" t="n">
-        <v>397.5494331578554</v>
+        <v>397.5494331578553</v>
       </c>
       <c r="E40" t="n">
-        <v>332.1342044769232</v>
+        <v>332.1342044769231</v>
       </c>
       <c r="F40" t="n">
         <v>267.7421218804736</v>
@@ -7333,19 +7333,19 @@
         <v>145.3068177030131</v>
       </c>
       <c r="K40" t="n">
-        <v>341.9135272959012</v>
+        <v>341.9135272959013</v>
       </c>
       <c r="L40" t="n">
-        <v>626.4169745882618</v>
+        <v>626.4169745882621</v>
       </c>
       <c r="M40" t="n">
-        <v>932.3797688178167</v>
+        <v>932.379768817817</v>
       </c>
       <c r="N40" t="n">
         <v>1238.424646783251</v>
       </c>
       <c r="O40" t="n">
-        <v>1511.262739960768</v>
+        <v>1511.262739960769</v>
       </c>
       <c r="P40" t="n">
         <v>1732.871927092363</v>
@@ -7369,13 +7369,13 @@
         <v>1141.462830998081</v>
       </c>
       <c r="W40" t="n">
-        <v>934.5435258625811</v>
+        <v>934.543525862581</v>
       </c>
       <c r="X40" t="n">
-        <v>789.0518398660246</v>
+        <v>789.0518398660245</v>
       </c>
       <c r="Y40" t="n">
-        <v>650.7571256239553</v>
+        <v>650.7571256239552</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1860.210822961703</v>
+        <v>1860.210822961704</v>
       </c>
       <c r="C41" t="n">
         <v>1573.746170922753</v>
@@ -7394,16 +7394,16 @@
         <v>1297.978337217463</v>
       </c>
       <c r="E41" t="n">
-        <v>994.6879495206792</v>
+        <v>994.6879495206796</v>
       </c>
       <c r="F41" t="n">
-        <v>666.1999096325326</v>
+        <v>666.1999096325328</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8978388456958</v>
+        <v>331.897838845696</v>
       </c>
       <c r="H41" t="n">
-        <v>99.12049213807551</v>
+        <v>99.12049213807556</v>
       </c>
       <c r="I41" t="n">
         <v>73.0225722566832</v>
@@ -7412,10 +7412,10 @@
         <v>118.2012296223864</v>
       </c>
       <c r="K41" t="n">
-        <v>557.5548023462477</v>
+        <v>336.9511211764286</v>
       </c>
       <c r="L41" t="n">
-        <v>934.2847059830474</v>
+        <v>934.2847059830469</v>
       </c>
       <c r="M41" t="n">
         <v>1615.539958413389</v>
@@ -7424,7 +7424,7 @@
         <v>2293.186635512679</v>
       </c>
       <c r="O41" t="n">
-        <v>2887.881539069465</v>
+        <v>2887.881539069464</v>
       </c>
       <c r="P41" t="n">
         <v>3357.765497594786</v>
@@ -7439,22 +7439,22 @@
         <v>3583.970732672776</v>
       </c>
       <c r="T41" t="n">
-        <v>3452.928782036464</v>
+        <v>3452.928782036463</v>
       </c>
       <c r="U41" t="n">
-        <v>3281.757971369097</v>
+        <v>3281.757971369098</v>
       </c>
       <c r="V41" t="n">
-        <v>3033.192948926987</v>
+        <v>3033.192948926988</v>
       </c>
       <c r="W41" t="n">
-        <v>2762.922158558334</v>
+        <v>2762.922158558335</v>
       </c>
       <c r="X41" t="n">
-        <v>2471.954265198715</v>
+        <v>2471.954265198716</v>
       </c>
       <c r="Y41" t="n">
-        <v>2164.312798124364</v>
+        <v>2164.312798124365</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>81.11282412191565</v>
       </c>
       <c r="K42" t="n">
-        <v>173.0951778808805</v>
+        <v>434.9157625233333</v>
       </c>
       <c r="L42" t="n">
-        <v>343.0993449924559</v>
+        <v>638.5156738836092</v>
       </c>
       <c r="M42" t="n">
-        <v>634.7819341504444</v>
+        <v>1317.307399609053</v>
       </c>
       <c r="N42" t="n">
-        <v>1347.24627043548</v>
+        <v>1555.22278529397</v>
       </c>
       <c r="O42" t="n">
-        <v>1932.596268679048</v>
+        <v>2140.572783537538</v>
       </c>
       <c r="P42" t="n">
-        <v>2385.388179959531</v>
+        <v>2593.364694818021</v>
       </c>
       <c r="Q42" t="n">
         <v>2635.369812142946</v>
@@ -7546,37 +7546,37 @@
         <v>551.6065256951766</v>
       </c>
       <c r="C43" t="n">
-        <v>465.1682076687306</v>
+        <v>465.1682076687305</v>
       </c>
       <c r="D43" t="n">
-        <v>397.5494331578557</v>
+        <v>397.5494331578556</v>
       </c>
       <c r="E43" t="n">
-        <v>332.1342044769234</v>
+        <v>332.1342044769233</v>
       </c>
       <c r="F43" t="n">
-        <v>267.7421218804739</v>
+        <v>267.7421218804737</v>
       </c>
       <c r="G43" t="n">
-        <v>181.7622596172311</v>
+        <v>181.7622596172312</v>
       </c>
       <c r="H43" t="n">
-        <v>111.1534563951405</v>
+        <v>111.1534563951406</v>
       </c>
       <c r="I43" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J43" t="n">
-        <v>145.3068177030131</v>
+        <v>145.306817703013</v>
       </c>
       <c r="K43" t="n">
-        <v>341.9135272959014</v>
+        <v>341.9135272959012</v>
       </c>
       <c r="L43" t="n">
-        <v>626.4169745882621</v>
+        <v>626.4169745882618</v>
       </c>
       <c r="M43" t="n">
-        <v>932.3797688178169</v>
+        <v>932.3797688178167</v>
       </c>
       <c r="N43" t="n">
         <v>1238.424646783251</v>
@@ -7585,19 +7585,19 @@
         <v>1511.262739960768</v>
       </c>
       <c r="P43" t="n">
-        <v>1732.871927092363</v>
+        <v>1732.871927092364</v>
       </c>
       <c r="Q43" t="n">
         <v>1827.743106315506</v>
       </c>
       <c r="R43" t="n">
-        <v>1785.568617538288</v>
+        <v>1785.568617538289</v>
       </c>
       <c r="S43" t="n">
         <v>1662.87636950228</v>
       </c>
       <c r="T43" t="n">
-        <v>1520.296723032098</v>
+        <v>1520.296723032099</v>
       </c>
       <c r="U43" t="n">
         <v>1313.649454302507</v>
@@ -7606,7 +7606,7 @@
         <v>1141.462830998081</v>
       </c>
       <c r="W43" t="n">
-        <v>934.5435258625813</v>
+        <v>934.5435258625814</v>
       </c>
       <c r="X43" t="n">
         <v>789.0518398660248</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1860.210822961704</v>
+        <v>1860.210822961703</v>
       </c>
       <c r="C44" t="n">
-        <v>1573.746170922753</v>
+        <v>1573.746170922752</v>
       </c>
       <c r="D44" t="n">
         <v>1297.978337217463</v>
@@ -7634,64 +7634,64 @@
         <v>994.6879495206795</v>
       </c>
       <c r="F44" t="n">
-        <v>666.1999096325328</v>
+        <v>666.1999096325327</v>
       </c>
       <c r="G44" t="n">
-        <v>331.897838845696</v>
+        <v>331.8978388456959</v>
       </c>
       <c r="H44" t="n">
-        <v>99.12049213807553</v>
+        <v>99.12049213807551</v>
       </c>
       <c r="I44" t="n">
-        <v>73.02257225668323</v>
+        <v>73.0225722566832</v>
       </c>
       <c r="J44" t="n">
-        <v>118.2012296223864</v>
+        <v>285.6068786427394</v>
       </c>
       <c r="K44" t="n">
-        <v>336.95112117643</v>
+        <v>724.9604513666006</v>
       </c>
       <c r="L44" t="n">
-        <v>934.2847059830483</v>
+        <v>934.2847059830469</v>
       </c>
       <c r="M44" t="n">
-        <v>1615.53995841339</v>
+        <v>1615.539958413389</v>
       </c>
       <c r="N44" t="n">
-        <v>2293.18663551268</v>
+        <v>2293.186635512679</v>
       </c>
       <c r="O44" t="n">
-        <v>2887.881539069466</v>
+        <v>2887.881539069464</v>
       </c>
       <c r="P44" t="n">
-        <v>3357.765497594787</v>
+        <v>3357.765497594786</v>
       </c>
       <c r="Q44" t="n">
-        <v>3633.407021887591</v>
+        <v>3633.40702188759</v>
       </c>
       <c r="R44" t="n">
-        <v>3651.128612834161</v>
+        <v>3651.12861283416</v>
       </c>
       <c r="S44" t="n">
-        <v>3583.970732672778</v>
+        <v>3583.970732672776</v>
       </c>
       <c r="T44" t="n">
-        <v>3452.928782036465</v>
+        <v>3452.928782036464</v>
       </c>
       <c r="U44" t="n">
-        <v>3281.757971369098</v>
+        <v>3281.757971369097</v>
       </c>
       <c r="V44" t="n">
-        <v>3033.192948926988</v>
+        <v>3033.192948926987</v>
       </c>
       <c r="W44" t="n">
-        <v>2762.922158558335</v>
+        <v>2762.922158558334</v>
       </c>
       <c r="X44" t="n">
-        <v>2471.954265198716</v>
+        <v>2471.954265198715</v>
       </c>
       <c r="Y44" t="n">
-        <v>2164.312798124365</v>
+        <v>2164.312798124364</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I45" t="n">
-        <v>73.02257225668323</v>
+        <v>73.0225722566832</v>
       </c>
       <c r="J45" t="n">
-        <v>81.11282412191568</v>
+        <v>205.9429491089204</v>
       </c>
       <c r="K45" t="n">
-        <v>173.0951778808806</v>
+        <v>559.7458875103381</v>
       </c>
       <c r="L45" t="n">
-        <v>343.0993449924559</v>
+        <v>745.8172999786564</v>
       </c>
       <c r="M45" t="n">
-        <v>634.7819341504444</v>
+        <v>1424.6090257041</v>
       </c>
       <c r="N45" t="n">
-        <v>1347.24627043548</v>
+        <v>1662.524411389018</v>
       </c>
       <c r="O45" t="n">
-        <v>1932.596268679048</v>
+        <v>2247.874409632585</v>
       </c>
       <c r="P45" t="n">
         <v>2385.388179959531</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>551.6065256951764</v>
+        <v>551.6065256951763</v>
       </c>
       <c r="C46" t="n">
-        <v>465.1682076687303</v>
+        <v>465.1682076687302</v>
       </c>
       <c r="D46" t="n">
-        <v>397.5494331578554</v>
+        <v>397.5494331578553</v>
       </c>
       <c r="E46" t="n">
-        <v>332.1342044769232</v>
+        <v>332.1342044769231</v>
       </c>
       <c r="F46" t="n">
         <v>267.7421218804736</v>
@@ -7801,25 +7801,25 @@
         <v>111.1534563951405</v>
       </c>
       <c r="I46" t="n">
-        <v>73.02257225668323</v>
+        <v>73.0225722566832</v>
       </c>
       <c r="J46" t="n">
-        <v>145.3068177030131</v>
+        <v>145.3068177030129</v>
       </c>
       <c r="K46" t="n">
-        <v>341.9135272959013</v>
+        <v>341.9135272959012</v>
       </c>
       <c r="L46" t="n">
-        <v>626.4169745882621</v>
+        <v>626.4169745882618</v>
       </c>
       <c r="M46" t="n">
-        <v>932.379768817817</v>
+        <v>932.3797688178166</v>
       </c>
       <c r="N46" t="n">
         <v>1238.424646783251</v>
       </c>
       <c r="O46" t="n">
-        <v>1511.262739960769</v>
+        <v>1511.262739960768</v>
       </c>
       <c r="P46" t="n">
         <v>1732.871927092363</v>
@@ -7843,13 +7843,13 @@
         <v>1141.462830998081</v>
       </c>
       <c r="W46" t="n">
-        <v>934.5435258625811</v>
+        <v>934.5435258625812</v>
       </c>
       <c r="X46" t="n">
-        <v>789.0518398660246</v>
+        <v>789.0518398660247</v>
       </c>
       <c r="Y46" t="n">
-        <v>650.7571256239553</v>
+        <v>650.7571256239552</v>
       </c>
     </row>
   </sheetData>
@@ -8696,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>379.8160932476103</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>406.515341557465</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>185.6157423500504</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6866694512763</v>
+        <v>433.7168661215884</v>
       </c>
       <c r="N12" t="n">
-        <v>413.3414387761604</v>
+        <v>120.3112421058483</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8927,16 +8927,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>143.2373072955705</v>
       </c>
       <c r="L14" t="n">
-        <v>123.5515974340358</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>74.68573388388336</v>
       </c>
       <c r="N15" t="n">
-        <v>88.32304447743692</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9173,16 +9173,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>31.40688538431039</v>
       </c>
       <c r="O17" t="n">
-        <v>86.69056414633107</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>123.5515974340358</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>297.872081678413</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>47.81582295725462</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>49.30748230003643</v>
       </c>
       <c r="K23" t="n">
-        <v>123.5515974340358</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>47.81582295725462</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>74.68573388388339</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>195.3312708461476</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>101.3134113895298</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>275.6338956339079</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>47.81582295725462</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>74.68573388388353</v>
+        <v>396.4545494475626</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>194.829213368815</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>311.2816976497518</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>74.68573388388353</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>91.62909140117929</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>74.68573388388353</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>352.3978638406448</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>101.3134113895298</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>45.41830805827544</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>119.9317202093553</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>74.68573388388353</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>101.3134113895298</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>275.6338956339079</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>47.81582295725462</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>352.3978638406447</v>
       </c>
       <c r="M39" t="n">
-        <v>74.68573388388353</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>101.3134113895293</v>
       </c>
       <c r="L41" t="n">
-        <v>194.8292133688155</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>33.93509520070759</v>
       </c>
       <c r="M42" t="n">
-        <v>74.68573388388353</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>101.3134113895307</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>25.73259819674135</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>16.22954076438677</v>
       </c>
       <c r="M45" t="n">
-        <v>74.68573388388347</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>336.47863566696</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>208.3264288708929</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>335.6751640757413</v>
+        <v>335.6751640757412</v>
       </c>
       <c r="F11" t="n">
-        <v>360.620839745191</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>366.3767303348942</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>265.86725349647</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>165.1492113858747</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.8767828166183</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>154.7038899184597</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.982732659533</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.6639557498869</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>120.9916151021074</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>102.3602670216919</v>
+        <v>102.3602670216918</v>
       </c>
       <c r="E13" t="n">
-        <v>100.1787566500487</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>99.16584202641079</v>
+        <v>99.16584202641069</v>
       </c>
       <c r="G13" t="n">
-        <v>120.5377438965358</v>
+        <v>120.5377438965357</v>
       </c>
       <c r="H13" t="n">
-        <v>105.3203954457955</v>
+        <v>105.3203954457954</v>
       </c>
       <c r="I13" t="n">
-        <v>73.16725555299848</v>
+        <v>73.1672555529984</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.17042414537123</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>26.39611101659898</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>240.2677923400705</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>308.4278356241624</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>360.620839745191</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>366.3767303348942</v>
+        <v>270.4087457938654</v>
       </c>
       <c r="H14" t="n">
-        <v>191.8217439974778</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.9827326595331</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6639557498868</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>120.9916151021074</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>102.3602670216919</v>
+        <v>102.3602670216918</v>
       </c>
       <c r="E16" t="n">
         <v>100.1787566500487</v>
       </c>
       <c r="F16" t="n">
-        <v>99.16584202641081</v>
+        <v>99.16584202641071</v>
       </c>
       <c r="G16" t="n">
-        <v>120.5377438965359</v>
+        <v>120.5377438965358</v>
       </c>
       <c r="H16" t="n">
-        <v>105.3203954457955</v>
+        <v>105.3203954457954</v>
       </c>
       <c r="I16" t="n">
-        <v>73.16725555299851</v>
+        <v>73.16725555299843</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>71.32612349641872</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>172.3294473555743</v>
       </c>
     </row>
     <row r="17">
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>765922.9220621448</v>
+        <v>765922.9220621451</v>
       </c>
       <c r="F3" t="n">
-        <v>45631.4584815851</v>
+        <v>45631.45848158513</v>
       </c>
       <c r="G3" t="n">
-        <v>49003.69675080336</v>
+        <v>49003.69675080326</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42463.55670056826</v>
+        <v>42463.55670056843</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>49003.69675080337</v>
+        <v>49003.69675080328</v>
       </c>
       <c r="M3" t="n">
         <v>162894.6891756674</v>
       </c>
       <c r="N3" t="n">
-        <v>39006.49934567612</v>
+        <v>39006.49934567618</v>
       </c>
       <c r="O3" t="n">
-        <v>16334.61225115367</v>
+        <v>16334.61225115373</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>111492.9860655484</v>
+        <v>111492.9860655485</v>
       </c>
       <c r="F4" t="n">
-        <v>127881.7967627225</v>
+        <v>127881.7967627226</v>
       </c>
       <c r="G4" t="n">
         <v>181150.5889076155</v>
@@ -26454,7 +26454,7 @@
         <v>173949.7893477468</v>
       </c>
       <c r="O4" t="n">
-        <v>173949.7893477468</v>
+        <v>173949.7893477467</v>
       </c>
       <c r="P4" t="n">
         <v>173949.7893477468</v>
@@ -26479,10 +26479,10 @@
         <v>58114.24465058543</v>
       </c>
       <c r="F5" t="n">
-        <v>67797.10999502319</v>
+        <v>67797.1099950232</v>
       </c>
       <c r="G5" t="n">
-        <v>72946.72472270229</v>
+        <v>72946.72472270232</v>
       </c>
       <c r="H5" t="n">
         <v>72946.72472270229</v>
@@ -26506,10 +26506,10 @@
         <v>76846.39990845602</v>
       </c>
       <c r="O5" t="n">
-        <v>76846.39990845602</v>
+        <v>76846.39990845601</v>
       </c>
       <c r="P5" t="n">
-        <v>76846.39990845602</v>
+        <v>76846.39990845601</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-448399.9986129589</v>
+        <v>-448404.412190827</v>
       </c>
       <c r="C6" t="n">
-        <v>-448399.9986129589</v>
+        <v>-448404.4121908271</v>
       </c>
       <c r="D6" t="n">
-        <v>-448399.9986129589</v>
+        <v>-448404.412190827</v>
       </c>
       <c r="E6" t="n">
-        <v>-935530.1527782787</v>
+        <v>-935886.6523450539</v>
       </c>
       <c r="F6" t="n">
-        <v>-241310.3652393308</v>
+        <v>-241543.8734327191</v>
       </c>
       <c r="G6" t="n">
-        <v>-303101.0103811212</v>
+        <v>-303101.0103811211</v>
       </c>
       <c r="H6" t="n">
-        <v>-254097.3136303178</v>
+        <v>-254097.3136303177</v>
       </c>
       <c r="I6" t="n">
-        <v>-254097.3136303178</v>
+        <v>-254097.3136303177</v>
       </c>
       <c r="J6" t="n">
-        <v>-293259.7459567711</v>
+        <v>-293259.7459567712</v>
       </c>
       <c r="K6" t="n">
-        <v>-250796.1892562028</v>
+        <v>-250796.1892562027</v>
       </c>
       <c r="L6" t="n">
-        <v>-299799.8860070062</v>
+        <v>-299799.8860070061</v>
       </c>
       <c r="M6" t="n">
         <v>-413690.8784318701</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="F2" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="G2" t="n">
         <v>107.5098269350246</v>
@@ -26707,10 +26707,10 @@
         <v>107.5098269350246</v>
       </c>
       <c r="J2" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="K2" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="L2" t="n">
         <v>81.67288625244623</v>
@@ -26719,10 +26719,10 @@
         <v>81.67288625244623</v>
       </c>
       <c r="N2" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="O2" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="P2" t="n">
         <v>81.67288625244623</v>
@@ -26799,16 +26799,16 @@
         <v>653.660010175067</v>
       </c>
       <c r="F4" t="n">
-        <v>812.9176638664776</v>
+        <v>812.9176638664778</v>
       </c>
       <c r="G4" t="n">
-        <v>812.9176638664776</v>
+        <v>812.9176638664778</v>
       </c>
       <c r="H4" t="n">
-        <v>812.9176638664776</v>
+        <v>812.9176638664774</v>
       </c>
       <c r="I4" t="n">
-        <v>812.9176638664776</v>
+        <v>812.9176638664774</v>
       </c>
       <c r="J4" t="n">
         <v>912.7821532085401</v>
@@ -26826,10 +26826,10 @@
         <v>912.7821532085401</v>
       </c>
       <c r="O4" t="n">
-        <v>912.7821532085401</v>
+        <v>912.78215320854</v>
       </c>
       <c r="P4" t="n">
-        <v>912.7821532085403</v>
+        <v>912.78215320854</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.2546209385042</v>
+        <v>61.25462093850408</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41826531394208</v>
+        <v>20.41826531394221</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.25462093850421</v>
+        <v>61.2546209385041</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41826531394209</v>
+        <v>20.41826531394216</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>653.660010175067</v>
       </c>
       <c r="F4" t="n">
-        <v>159.2576536914106</v>
+        <v>159.2576536914108</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>99.86448934206248</v>
+        <v>99.86448934206271</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>653.660010175067</v>
       </c>
       <c r="N4" t="n">
-        <v>159.2576536914106</v>
+        <v>159.2576536914108</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.2546209385042</v>
+        <v>61.25462093850408</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41826531394208</v>
+        <v>20.41826531394221</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>653.660010175067</v>
       </c>
       <c r="N4" t="n">
-        <v>159.2576536914106</v>
+        <v>159.2576536914108</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="C11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="D11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="E11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="F11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="G11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="H11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="I11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="T11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="U11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="V11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="W11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="X11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="C13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="D13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="E13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="F13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="G13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="H13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="I13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="J13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="K13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="L13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="M13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="N13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="O13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="P13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="R13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="S13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="T13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="U13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="V13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="W13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="X13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.25520599652045</v>
+        <v>46.25520599652056</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="C14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="D14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="E14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="F14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="G14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="H14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="I14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="T14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="U14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="V14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="W14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="X14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="C16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="D16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="E16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="F16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="G16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="H16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="I16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="J16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="K16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="L16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="M16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="N16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="O16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="P16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="R16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="S16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="T16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="U16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="V16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="W16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="X16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.25520599652042</v>
+        <v>46.25520599652052</v>
       </c>
     </row>
     <row r="17">
@@ -28746,10 +28746,10 @@
         <v>8.658496912719116</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>7.920375497128106</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,10 +28761,10 @@
         <v>107.5098269350246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.5098269350246</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.920375497127832</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>107.5098269350246</v>
@@ -28983,19 +28983,19 @@
         <v>8.658496912719116</v>
       </c>
       <c r="K22" t="n">
-        <v>7.920375497127765</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="N22" t="n">
-        <v>107.5098269350246</v>
+        <v>7.920375497128163</v>
       </c>
       <c r="O22" t="n">
-        <v>107.5098269350246</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29217,14 +29217,14 @@
         <v>107.5098269350246</v>
       </c>
       <c r="J25" t="n">
+        <v>8.658496912719116</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>107.5098269350246</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>16.57887240984701</v>
+        <v>7.920375497128163</v>
       </c>
       <c r="P25" t="n">
         <v>107.5098269350246</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="C26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="D26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="E26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="F26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="G26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="H26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="I26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="T26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="U26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="V26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="W26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="X26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="C28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="D28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="E28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="F28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="G28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="H28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="I28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="J28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="K28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="L28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="M28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="N28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="O28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="P28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="R28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="S28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="T28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="U28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="V28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="W28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="X28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244625</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="C29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="D29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="E29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="F29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="G29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="H29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="I29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="T29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="U29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="V29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="W29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="X29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="C31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="D31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="E31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="F31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="G31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="H31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="I31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="J31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="K31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="L31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="M31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="N31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="O31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="P31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="R31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="S31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="T31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="U31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="V31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="W31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="X31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.6728862524462</v>
       </c>
     </row>
     <row r="32">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="C38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="D38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="E38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="F38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="G38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="H38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="I38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="T38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="U38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="V38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="W38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="X38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="Y38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="C40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="D40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="E40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="F40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="G40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="H40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="I40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="J40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="K40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="L40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="M40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="N40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="O40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="P40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244613</v>
       </c>
       <c r="R40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="S40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="T40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="U40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="V40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="W40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="X40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="C41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="D41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="E41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="F41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="G41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="H41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="I41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="T41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="U41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="V41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="W41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="X41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="C43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="D43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="E43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="F43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="G43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="H43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="I43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="J43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="K43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="L43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="M43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="N43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="O43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="P43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244697</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="R43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="S43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="T43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="U43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="V43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="W43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="X43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244618</v>
       </c>
     </row>
     <row r="44">
@@ -30882,7 +30882,7 @@
         <v>81.67288625244623</v>
       </c>
       <c r="L46" t="n">
-        <v>81.67288625244629</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="M46" t="n">
         <v>81.67288625244623</v>
@@ -35416,10 +35416,10 @@
         <v>185.7060428299721</v>
       </c>
       <c r="M11" t="n">
-        <v>618.4391783712848</v>
+        <v>238.6230851236745</v>
       </c>
       <c r="N11" t="n">
-        <v>247.144668617602</v>
+        <v>653.660010175067</v>
       </c>
       <c r="O11" t="n">
         <v>600.7019227846316</v>
@@ -35428,7 +35428,7 @@
         <v>474.6302611366884</v>
       </c>
       <c r="Q11" t="n">
-        <v>278.4257821139431</v>
+        <v>251.7265338040888</v>
       </c>
       <c r="R11" t="n">
         <v>17.90059691572782</v>
@@ -35495,10 +35495,10 @@
         <v>171.7213809207832</v>
       </c>
       <c r="M12" t="n">
+        <v>653.660010175067</v>
+      </c>
+      <c r="N12" t="n">
         <v>360.6298135047548</v>
-      </c>
-      <c r="N12" t="n">
-        <v>653.660010175067</v>
       </c>
       <c r="O12" t="n">
         <v>591.2626244884523</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.59670908380134</v>
+        <v>37.59670908380144</v>
       </c>
       <c r="K13" t="n">
-        <v>163.1749556964866</v>
+        <v>163.1749556964867</v>
       </c>
       <c r="L13" t="n">
-        <v>251.9595392313073</v>
+        <v>251.9595392313074</v>
       </c>
       <c r="M13" t="n">
-        <v>273.6356472486751</v>
+        <v>273.6356472486752</v>
       </c>
       <c r="N13" t="n">
-        <v>273.7185601131996</v>
+        <v>273.7185601131997</v>
       </c>
       <c r="O13" t="n">
-        <v>240.1763532567183</v>
+        <v>240.1763532567184</v>
       </c>
       <c r="P13" t="n">
         <v>188.4299835133619</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.41179370684448</v>
+        <v>60.41179370684459</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>45.63500744010426</v>
       </c>
       <c r="K14" t="n">
-        <v>119.6460750286951</v>
+        <v>262.8833823242656</v>
       </c>
       <c r="L14" t="n">
-        <v>309.2576402640079</v>
+        <v>603.3672573804225</v>
       </c>
       <c r="M14" t="n">
         <v>688.136618616507</v>
       </c>
       <c r="N14" t="n">
-        <v>684.4915930295861</v>
+        <v>247.144668617602</v>
       </c>
       <c r="O14" t="n">
         <v>600.7019227846316</v>
@@ -35732,10 +35732,10 @@
         <v>171.7213809207832</v>
       </c>
       <c r="M15" t="n">
-        <v>685.6482078034785</v>
+        <v>294.6288779373619</v>
       </c>
       <c r="N15" t="n">
-        <v>328.6416158763435</v>
+        <v>719.6609457424601</v>
       </c>
       <c r="O15" t="n">
         <v>591.2626244884523</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.59670908380131</v>
+        <v>37.5967090838014</v>
       </c>
       <c r="K16" t="n">
         <v>163.1749556964866</v>
       </c>
       <c r="L16" t="n">
-        <v>251.9595392313072</v>
+        <v>251.9595392313073</v>
       </c>
       <c r="M16" t="n">
-        <v>273.6356472486751</v>
+        <v>273.6356472486752</v>
       </c>
       <c r="N16" t="n">
-        <v>273.7185601131996</v>
+        <v>273.7185601131997</v>
       </c>
       <c r="O16" t="n">
-        <v>240.1763532567183</v>
+        <v>240.1763532567184</v>
       </c>
       <c r="P16" t="n">
-        <v>188.4299835133618</v>
+        <v>188.4299835133619</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.41179370684446</v>
+        <v>60.41179370684455</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>45.63500744010426</v>
       </c>
       <c r="K17" t="n">
-        <v>119.6460750286951</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L17" t="n">
         <v>603.3672573804225</v>
@@ -35893,16 +35893,16 @@
         <v>688.136618616507</v>
       </c>
       <c r="N17" t="n">
-        <v>684.4915930295861</v>
+        <v>278.5515540019123</v>
       </c>
       <c r="O17" t="n">
-        <v>306.5923056682173</v>
+        <v>600.7019227846316</v>
       </c>
       <c r="P17" t="n">
         <v>474.6302611366884</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.4257821139431</v>
+        <v>66.11079145403838</v>
       </c>
       <c r="R17" t="n">
         <v>17.90059691572782</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>116.9197496999661</v>
+        <v>224.4295766349907</v>
       </c>
       <c r="L19" t="n">
-        <v>205.7043332347868</v>
+        <v>213.6247087319149</v>
       </c>
       <c r="M19" t="n">
         <v>227.3804412521547</v>
@@ -36057,10 +36057,10 @@
         <v>301.4309741952225</v>
       </c>
       <c r="P19" t="n">
-        <v>249.684604451866</v>
+        <v>142.1747775168414</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.07696320745186</v>
+        <v>14.15658771032403</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.63500744010426</v>
+        <v>214.731622612178</v>
       </c>
       <c r="K20" t="n">
-        <v>119.6460750286951</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L20" t="n">
-        <v>309.2576402640079</v>
+        <v>185.7060428299721</v>
       </c>
       <c r="M20" t="n">
         <v>688.136618616507</v>
       </c>
       <c r="N20" t="n">
-        <v>684.4915930295861</v>
+        <v>545.0167502960149</v>
       </c>
       <c r="O20" t="n">
         <v>600.7019227846316</v>
@@ -36139,10 +36139,10 @@
         <v>474.6302611366884</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.4257821139431</v>
+        <v>66.11079145403838</v>
       </c>
       <c r="R20" t="n">
-        <v>17.90059691572782</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>124.8401251970939</v>
+        <v>116.9197496999661</v>
       </c>
       <c r="L22" t="n">
-        <v>205.7043332347868</v>
+        <v>313.2141601698114</v>
       </c>
       <c r="M22" t="n">
-        <v>227.3804412521547</v>
+        <v>334.8902681871793</v>
       </c>
       <c r="N22" t="n">
-        <v>334.9731810517038</v>
+        <v>235.3837296138073</v>
       </c>
       <c r="O22" t="n">
-        <v>301.4309741952225</v>
+        <v>193.9211472601978</v>
       </c>
       <c r="P22" t="n">
         <v>142.1747775168414</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.63500744010426</v>
+        <v>94.94248974014069</v>
       </c>
       <c r="K23" t="n">
-        <v>243.1976724627309</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L23" t="n">
-        <v>185.7060428299721</v>
+        <v>603.3672573804225</v>
       </c>
       <c r="M23" t="n">
         <v>688.136618616507</v>
       </c>
       <c r="N23" t="n">
-        <v>684.4915930295861</v>
+        <v>247.144668617602</v>
       </c>
       <c r="O23" t="n">
         <v>600.7019227846316</v>
@@ -36376,10 +36376,10 @@
         <v>474.6302611366884</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.4257821139431</v>
+        <v>66.11079145403838</v>
       </c>
       <c r="R23" t="n">
-        <v>17.90059691572782</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8.171971581042868</v>
+        <v>134.2630069214517</v>
       </c>
       <c r="K24" t="n">
-        <v>167.5972023272822</v>
+        <v>92.91146844339886</v>
       </c>
       <c r="L24" t="n">
-        <v>171.7213809207832</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M24" t="n">
-        <v>219.9431440534786</v>
+        <v>685.6482078034785</v>
       </c>
       <c r="N24" t="n">
-        <v>719.6609457424601</v>
+        <v>240.3185713989065</v>
       </c>
       <c r="O24" t="n">
-        <v>591.2626244884523</v>
+        <v>392.7315760578704</v>
       </c>
       <c r="P24" t="n">
         <v>457.3655669499827</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.5066991751671</v>
+        <v>42.42941143931799</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>98.85133002230549</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>116.9197496999661</v>
       </c>
       <c r="L25" t="n">
-        <v>205.7043332347868</v>
+        <v>313.2141601698114</v>
       </c>
       <c r="M25" t="n">
         <v>227.3804412521547</v>
@@ -36528,7 +36528,7 @@
         <v>227.4633541166791</v>
       </c>
       <c r="O25" t="n">
-        <v>210.5000196700448</v>
+        <v>201.841522757326</v>
       </c>
       <c r="P25" t="n">
         <v>249.684604451866</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.63500744010426</v>
+        <v>214.731622612178</v>
       </c>
       <c r="K26" t="n">
-        <v>220.9594864182249</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L26" t="n">
         <v>603.3672573804225</v>
@@ -36604,7 +36604,7 @@
         <v>688.136618616507</v>
       </c>
       <c r="N26" t="n">
-        <v>684.4915930295861</v>
+        <v>522.7785642515098</v>
       </c>
       <c r="O26" t="n">
         <v>600.7019227846316</v>
@@ -36613,10 +36613,10 @@
         <v>474.6302611366884</v>
       </c>
       <c r="Q26" t="n">
-        <v>278.4257821139431</v>
+        <v>66.11079145403838</v>
       </c>
       <c r="R26" t="n">
-        <v>17.90059691572782</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>8.171971581042868</v>
+        <v>134.2630069214517</v>
       </c>
       <c r="K27" t="n">
-        <v>92.91146844339886</v>
+        <v>357.3767054559775</v>
       </c>
       <c r="L27" t="n">
         <v>171.7213809207832</v>
       </c>
       <c r="M27" t="n">
-        <v>294.6288779373621</v>
+        <v>616.3976935010412</v>
       </c>
       <c r="N27" t="n">
         <v>719.6609457424601</v>
       </c>
       <c r="O27" t="n">
-        <v>591.2626244884523</v>
+        <v>197.4003052117228</v>
       </c>
       <c r="P27" t="n">
-        <v>457.3655669499827</v>
+        <v>138.9027983100455</v>
       </c>
       <c r="Q27" t="n">
         <v>252.5066991751671</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.01438933972712</v>
+        <v>73.01438933972713</v>
       </c>
       <c r="K28" t="n">
         <v>198.5926359524124</v>
@@ -36765,13 +36765,13 @@
         <v>309.1362403691254</v>
       </c>
       <c r="O28" t="n">
-        <v>275.594033512644</v>
+        <v>275.5940335126441</v>
       </c>
       <c r="P28" t="n">
         <v>223.8476637692876</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.82947396277027</v>
+        <v>95.82947396277028</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>443.7914875998599</v>
       </c>
       <c r="L29" t="n">
-        <v>380.5352561987871</v>
+        <v>603.3672573804225</v>
       </c>
       <c r="M29" t="n">
         <v>688.136618616507</v>
@@ -36847,10 +36847,10 @@
         <v>600.7019227846316</v>
       </c>
       <c r="P29" t="n">
-        <v>474.6302611366884</v>
+        <v>464.1132506149576</v>
       </c>
       <c r="Q29" t="n">
-        <v>278.4257821139431</v>
+        <v>66.11079145403838</v>
       </c>
       <c r="R29" t="n">
         <v>17.90059691572782</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>8.171971581042868</v>
+        <v>134.2630069214517</v>
       </c>
       <c r="K30" t="n">
-        <v>92.91146844339886</v>
+        <v>357.3767054559775</v>
       </c>
       <c r="L30" t="n">
         <v>171.7213809207832</v>
       </c>
       <c r="M30" t="n">
-        <v>294.6288779373621</v>
+        <v>685.6482078034785</v>
       </c>
       <c r="N30" t="n">
-        <v>719.6609457424601</v>
+        <v>331.9476628000858</v>
       </c>
       <c r="O30" t="n">
-        <v>591.2626244884523</v>
+        <v>197.4003052117228</v>
       </c>
       <c r="P30" t="n">
         <v>457.3655669499827</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.0143893397271</v>
+        <v>73.01438933972709</v>
       </c>
       <c r="K31" t="n">
-        <v>198.5926359524124</v>
+        <v>198.5926359524123</v>
       </c>
       <c r="L31" t="n">
         <v>287.377219487233</v>
@@ -37008,7 +37008,7 @@
         <v>223.8476637692876</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.82947396277025</v>
+        <v>95.82947396277024</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>8.171971581042868</v>
       </c>
       <c r="K33" t="n">
-        <v>92.91146844339886</v>
+        <v>357.3767054559775</v>
       </c>
       <c r="L33" t="n">
         <v>171.7213809207832</v>
       </c>
       <c r="M33" t="n">
-        <v>294.6288779373621</v>
+        <v>685.6482078034785</v>
       </c>
       <c r="N33" t="n">
-        <v>719.6609457424601</v>
+        <v>592.7164352395514</v>
       </c>
       <c r="O33" t="n">
         <v>591.2626244884523</v>
       </c>
       <c r="P33" t="n">
-        <v>457.3655669499827</v>
+        <v>138.9027983100455</v>
       </c>
       <c r="Q33" t="n">
-        <v>252.5066991751671</v>
+        <v>42.42941143931799</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.63500744010426</v>
+        <v>214.731622612178</v>
       </c>
       <c r="K35" t="n">
-        <v>220.9594864182249</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L35" t="n">
         <v>603.3672573804225</v>
@@ -37315,7 +37315,7 @@
         <v>688.136618616507</v>
       </c>
       <c r="N35" t="n">
-        <v>684.4915930295861</v>
+        <v>292.5629766758774</v>
       </c>
       <c r="O35" t="n">
         <v>600.7019227846316</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.171971581042868</v>
+        <v>134.2630069214517</v>
       </c>
       <c r="K36" t="n">
-        <v>92.91146844339886</v>
+        <v>212.8431886527542</v>
       </c>
       <c r="L36" t="n">
-        <v>171.7213809207832</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M36" t="n">
-        <v>294.6288779373621</v>
+        <v>685.6482078034785</v>
       </c>
       <c r="N36" t="n">
-        <v>719.6609457424601</v>
+        <v>240.3185713989065</v>
       </c>
       <c r="O36" t="n">
         <v>591.2626244884523</v>
       </c>
       <c r="P36" t="n">
-        <v>457.3655669499827</v>
+        <v>138.9027983100455</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.5066991751671</v>
+        <v>42.42941143931799</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.63500744010426</v>
+        <v>214.731622612178</v>
       </c>
       <c r="K38" t="n">
-        <v>220.9594864182249</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L38" t="n">
         <v>603.3672573804225</v>
@@ -37552,7 +37552,7 @@
         <v>688.136618616507</v>
       </c>
       <c r="N38" t="n">
-        <v>684.4915930295861</v>
+        <v>522.7785642515098</v>
       </c>
       <c r="O38" t="n">
         <v>600.7019227846316</v>
@@ -37561,10 +37561,10 @@
         <v>474.6302611366884</v>
       </c>
       <c r="Q38" t="n">
-        <v>278.4257821139431</v>
+        <v>66.11079145403838</v>
       </c>
       <c r="R38" t="n">
-        <v>17.90059691572782</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>8.171971581042868</v>
       </c>
       <c r="K39" t="n">
-        <v>92.91146844339886</v>
+        <v>357.3767054559775</v>
       </c>
       <c r="L39" t="n">
-        <v>171.7213809207832</v>
+        <v>524.1192447614279</v>
       </c>
       <c r="M39" t="n">
-        <v>294.6288779373621</v>
+        <v>685.6482078034785</v>
       </c>
       <c r="N39" t="n">
-        <v>719.6609457424601</v>
+        <v>240.3185713989065</v>
       </c>
       <c r="O39" t="n">
         <v>591.2626244884523</v>
       </c>
       <c r="P39" t="n">
-        <v>457.3655669499827</v>
+        <v>138.9027983100455</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.5066991751671</v>
+        <v>42.42941143931799</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.0143893397271</v>
+        <v>73.01438933972712</v>
       </c>
       <c r="K40" t="n">
         <v>198.5926359524124</v>
@@ -37710,7 +37710,7 @@
         <v>309.0533275046009</v>
       </c>
       <c r="N40" t="n">
-        <v>309.1362403691253</v>
+        <v>309.1362403691254</v>
       </c>
       <c r="O40" t="n">
         <v>275.594033512644</v>
@@ -37719,7 +37719,7 @@
         <v>223.8476637692876</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.82947396277025</v>
+        <v>95.82947396277017</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>45.63500744010426</v>
       </c>
       <c r="K41" t="n">
-        <v>443.7914875998599</v>
+        <v>220.9594864182244</v>
       </c>
       <c r="L41" t="n">
-        <v>380.5352561987876</v>
+        <v>603.3672573804225</v>
       </c>
       <c r="M41" t="n">
         <v>688.136618616507</v>
@@ -37859,16 +37859,16 @@
         <v>8.171971581042868</v>
       </c>
       <c r="K42" t="n">
-        <v>92.91146844339886</v>
+        <v>357.3767054559775</v>
       </c>
       <c r="L42" t="n">
-        <v>171.7213809207832</v>
+        <v>205.6564761214908</v>
       </c>
       <c r="M42" t="n">
-        <v>294.6288779373621</v>
+        <v>685.6482078034785</v>
       </c>
       <c r="N42" t="n">
-        <v>719.6609457424601</v>
+        <v>240.3185713989065</v>
       </c>
       <c r="O42" t="n">
         <v>591.2626244884523</v>
@@ -37877,7 +37877,7 @@
         <v>457.3655669499827</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.5066991751671</v>
+        <v>42.42941143931799</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.01438933972712</v>
+        <v>73.01438933972706</v>
       </c>
       <c r="K43" t="n">
-        <v>198.5926359524124</v>
+        <v>198.5926359524123</v>
       </c>
       <c r="L43" t="n">
         <v>287.377219487233</v>
@@ -37947,16 +37947,16 @@
         <v>309.0533275046009</v>
       </c>
       <c r="N43" t="n">
-        <v>309.1362403691254</v>
+        <v>309.1362403691253</v>
       </c>
       <c r="O43" t="n">
         <v>275.594033512644</v>
       </c>
       <c r="P43" t="n">
-        <v>223.8476637692876</v>
+        <v>223.8476637692884</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.82947396277027</v>
+        <v>95.82947396277021</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.63500744010426</v>
+        <v>214.731622612178</v>
       </c>
       <c r="K44" t="n">
-        <v>220.9594864182258</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L44" t="n">
-        <v>603.3672573804225</v>
+        <v>211.4386410267134</v>
       </c>
       <c r="M44" t="n">
         <v>688.136618616507</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>8.171971581042868</v>
+        <v>134.2630069214517</v>
       </c>
       <c r="K45" t="n">
-        <v>92.91146844339886</v>
+        <v>357.3767054559775</v>
       </c>
       <c r="L45" t="n">
-        <v>171.7213809207832</v>
+        <v>187.95092168517</v>
       </c>
       <c r="M45" t="n">
-        <v>294.6288779373621</v>
+        <v>685.6482078034785</v>
       </c>
       <c r="N45" t="n">
-        <v>719.6609457424601</v>
+        <v>240.3185713989065</v>
       </c>
       <c r="O45" t="n">
         <v>591.2626244884523</v>
       </c>
       <c r="P45" t="n">
-        <v>457.3655669499827</v>
+        <v>138.9027983100455</v>
       </c>
       <c r="Q45" t="n">
         <v>252.5066991751671</v>
@@ -38178,7 +38178,7 @@
         <v>198.5926359524124</v>
       </c>
       <c r="L46" t="n">
-        <v>287.3772194872331</v>
+        <v>287.377219487233</v>
       </c>
       <c r="M46" t="n">
         <v>309.0533275046009</v>
